--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1059564.849832204</v>
+        <v>1057031.596364697</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9961425.12670622</v>
+        <v>9961425.126706218</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="E8" t="n">
-        <v>9.300062959642489</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.21022140383137</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.21022140383137</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6.521117270783228</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>15.21022140383137</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1221,64 +1221,64 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>15.21022140383137</v>
       </c>
-      <c r="G9" t="n">
+      <c r="S9" t="n">
+        <v>13.39716301249466</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>15.21022140383137</v>
       </c>
-      <c r="H9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>15.21022140383137</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13.39716301249467</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15.21022140383137</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>15.21022140383137</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>13.39716301249466</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>15.21022140383137</v>
       </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337.8868837519179</v>
+        <v>337.8868837519177</v>
       </c>
       <c r="C11" t="n">
-        <v>320.4259338594449</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>309.8360837091203</v>
+        <v>309.8360837091201</v>
       </c>
       <c r="E11" t="n">
-        <v>337.0834121606991</v>
+        <v>168.4595762657</v>
       </c>
       <c r="F11" t="n">
-        <v>362.0290878301487</v>
+        <v>362.0290878301486</v>
       </c>
       <c r="G11" t="n">
-        <v>366.074009754824</v>
+        <v>366.0740097548239</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7530437407106</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.32353124632985</v>
+        <v>64.32353124632968</v>
       </c>
       <c r="T11" t="n">
-        <v>159.0676941396728</v>
+        <v>159.0676941396727</v>
       </c>
       <c r="U11" t="n">
-        <v>206.1481534083739</v>
+        <v>206.1481534083738</v>
       </c>
       <c r="V11" t="n">
-        <v>282.9053005585722</v>
+        <v>282.905300558572</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>304.3940108058501</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>324.8841427669062</v>
       </c>
       <c r="Y11" t="n">
-        <v>231.8663208220914</v>
+        <v>341.3909807444907</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.9850222703746</v>
+        <v>134.9850222703744</v>
       </c>
       <c r="C13" t="n">
-        <v>122.3998631870651</v>
+        <v>122.399863187065</v>
       </c>
       <c r="D13" t="n">
-        <v>103.7685151066497</v>
+        <v>103.7685151066495</v>
       </c>
       <c r="E13" t="n">
-        <v>101.5870047350065</v>
+        <v>101.5870047350063</v>
       </c>
       <c r="F13" t="n">
-        <v>100.5740901113685</v>
+        <v>100.5740901113684</v>
       </c>
       <c r="G13" t="n">
-        <v>121.178510340562</v>
+        <v>70.80766275435643</v>
       </c>
       <c r="H13" t="n">
-        <v>99.90503403228877</v>
+        <v>99.9050340322886</v>
       </c>
       <c r="I13" t="n">
-        <v>51.49523756339554</v>
+        <v>51.49523756339537</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.06990681171445</v>
+        <v>44.06990681171428</v>
       </c>
       <c r="S13" t="n">
-        <v>144.9161420268427</v>
+        <v>144.9161420268426</v>
       </c>
       <c r="T13" t="n">
-        <v>174.700538607837</v>
+        <v>174.7005386078368</v>
       </c>
       <c r="U13" t="n">
-        <v>241.3648617482191</v>
+        <v>241.3648617482189</v>
       </c>
       <c r="V13" t="n">
-        <v>207.2906854122653</v>
+        <v>207.2906854122651</v>
       </c>
       <c r="W13" t="n">
-        <v>241.6760404250283</v>
+        <v>241.6760404250281</v>
       </c>
       <c r="X13" t="n">
-        <v>130.4918498912651</v>
+        <v>180.8626974774743</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.7376954405321</v>
+        <v>173.7376954405319</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>320.4259338594449</v>
+        <v>320.4259338594447</v>
       </c>
       <c r="D14" t="n">
-        <v>309.8360837091203</v>
+        <v>309.8360837091201</v>
       </c>
       <c r="E14" t="n">
-        <v>337.0834121606991</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>362.0290878301487</v>
+        <v>362.0290878301486</v>
       </c>
       <c r="G14" t="n">
-        <v>366.074009754824</v>
+        <v>366.0740097548239</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7530437407106</v>
+        <v>185.920526158172</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.32353124632985</v>
+        <v>64.32353124632968</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>159.0676941396727</v>
       </c>
       <c r="U14" t="n">
-        <v>206.1481534083739</v>
+        <v>206.1481534083738</v>
       </c>
       <c r="V14" t="n">
-        <v>282.9053005585722</v>
+        <v>282.905300558572</v>
       </c>
       <c r="W14" t="n">
-        <v>304.3940108058503</v>
+        <v>304.3940108058501</v>
       </c>
       <c r="X14" t="n">
-        <v>83.03590716334102</v>
+        <v>324.8841427669062</v>
       </c>
       <c r="Y14" t="n">
-        <v>341.3909807444909</v>
+        <v>341.3909807444907</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.9850222703746</v>
+        <v>134.9850222703744</v>
       </c>
       <c r="C16" t="n">
-        <v>122.3998631870651</v>
+        <v>122.399863187065</v>
       </c>
       <c r="D16" t="n">
-        <v>103.7685151066497</v>
+        <v>103.7685151066495</v>
       </c>
       <c r="E16" t="n">
-        <v>101.5870047350065</v>
+        <v>101.5870047350063</v>
       </c>
       <c r="F16" t="n">
-        <v>100.5740901113685</v>
+        <v>100.5740901113684</v>
       </c>
       <c r="G16" t="n">
-        <v>121.178510340562</v>
+        <v>121.1785103405619</v>
       </c>
       <c r="H16" t="n">
-        <v>99.90503403228877</v>
+        <v>99.9050340322886</v>
       </c>
       <c r="I16" t="n">
-        <v>51.49523756339554</v>
+        <v>1.124389977188692</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.06990681171445</v>
+        <v>44.06990681171428</v>
       </c>
       <c r="S16" t="n">
-        <v>144.9161420268427</v>
+        <v>144.9161420268426</v>
       </c>
       <c r="T16" t="n">
-        <v>174.700538607837</v>
+        <v>174.7005386078368</v>
       </c>
       <c r="U16" t="n">
-        <v>241.3648617482191</v>
+        <v>241.3648617482189</v>
       </c>
       <c r="V16" t="n">
-        <v>207.2906854122653</v>
+        <v>207.2906854122651</v>
       </c>
       <c r="W16" t="n">
-        <v>241.6760404250283</v>
+        <v>241.6760404250281</v>
       </c>
       <c r="X16" t="n">
-        <v>180.8626974774745</v>
+        <v>180.8626974774743</v>
       </c>
       <c r="Y16" t="n">
-        <v>123.3668478543221</v>
+        <v>173.7376954405319</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.7740835276717</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>318.3131336351987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7232834848741</v>
+        <v>307.723283484874</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9706119364529</v>
+        <v>279.8342187436134</v>
       </c>
       <c r="F17" t="n">
-        <v>177.4993729769815</v>
+        <v>359.9162876059025</v>
       </c>
       <c r="G17" t="n">
         <v>363.9612095305778</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21073102208362</v>
+        <v>62.21073102208359</v>
       </c>
       <c r="T17" t="n">
         <v>156.9548939154266</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0353531841277</v>
       </c>
       <c r="V17" t="n">
         <v>280.792500334326</v>
@@ -1907,10 +1907,10 @@
         <v>302.2812105816041</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>322.7713425426601</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.2781805202447</v>
+        <v>339.2781805202446</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8722220461284</v>
+        <v>132.8722220461283</v>
       </c>
       <c r="C19" t="n">
         <v>120.2870629628189</v>
@@ -2008,19 +2008,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E19" t="n">
-        <v>99.47420451076025</v>
+        <v>99.47420451076022</v>
       </c>
       <c r="F19" t="n">
-        <v>98.46128988712232</v>
+        <v>98.46128988712229</v>
       </c>
       <c r="G19" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H19" t="n">
-        <v>97.79223380804254</v>
+        <v>97.79223380804251</v>
       </c>
       <c r="I19" t="n">
-        <v>49.38243733914931</v>
+        <v>49.38243733914928</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95710658746822</v>
+        <v>41.95710658746819</v>
       </c>
       <c r="S19" t="n">
         <v>142.8033418025965</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5877383835908</v>
+        <v>172.5877383835907</v>
       </c>
       <c r="U19" t="n">
         <v>239.2520615239728</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1778851880191</v>
+        <v>205.177885188019</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5632402007821</v>
+        <v>239.563240200782</v>
       </c>
       <c r="X19" t="n">
         <v>178.7498972532282</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6248952162859</v>
+        <v>171.6248952162858</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.7740835276717</v>
+        <v>335.7740835276716</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>318.3131336351986</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7232834848741</v>
+        <v>307.723283484874</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9706119364529</v>
+        <v>334.9706119364528</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9162876059025</v>
+        <v>14.65388678077075</v>
       </c>
       <c r="G20" t="n">
-        <v>358.0328063748115</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6402435164644</v>
+        <v>247.6402435164643</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21073102208359</v>
       </c>
       <c r="T20" t="n">
         <v>156.9548939154266</v>
@@ -2144,10 +2144,10 @@
         <v>302.2812105816041</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7713425426601</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.2781805202447</v>
+        <v>339.2781805202446</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8722220461284</v>
+        <v>132.8722220461283</v>
       </c>
       <c r="C22" t="n">
         <v>120.2870629628189</v>
@@ -2245,19 +2245,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E22" t="n">
-        <v>99.47420451076025</v>
+        <v>99.47420451076022</v>
       </c>
       <c r="F22" t="n">
-        <v>98.46128988712232</v>
+        <v>98.46128988712229</v>
       </c>
       <c r="G22" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H22" t="n">
-        <v>97.79223380804254</v>
+        <v>97.79223380804251</v>
       </c>
       <c r="I22" t="n">
-        <v>49.38243733914931</v>
+        <v>49.38243733914928</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95710658746822</v>
+        <v>41.95710658746819</v>
       </c>
       <c r="S22" t="n">
         <v>142.8033418025965</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5877383835908</v>
+        <v>172.5877383835907</v>
       </c>
       <c r="U22" t="n">
         <v>239.2520615239728</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1778851880191</v>
+        <v>205.177885188019</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5632402007821</v>
+        <v>239.563240200782</v>
       </c>
       <c r="X22" t="n">
         <v>178.7498972532282</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6248952162859</v>
+        <v>171.6248952162858</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.7740835276717</v>
+        <v>335.7740835276716</v>
       </c>
       <c r="C23" t="n">
-        <v>318.3131336351987</v>
+        <v>318.3131336351986</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7232834848741</v>
+        <v>307.723283484874</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9706119364529</v>
+        <v>334.9706119364528</v>
       </c>
       <c r="F23" t="n">
         <v>359.9162876059025</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21073102208362</v>
+        <v>62.21073102208359</v>
       </c>
       <c r="T23" t="n">
         <v>156.9548939154266</v>
@@ -2384,7 +2384,7 @@
         <v>322.7713425426601</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.2781805202447</v>
+        <v>339.2781805202446</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8722220461284</v>
+        <v>132.8722220461283</v>
       </c>
       <c r="C25" t="n">
         <v>120.2870629628189</v>
@@ -2482,19 +2482,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E25" t="n">
-        <v>99.47420451076025</v>
+        <v>99.47420451076022</v>
       </c>
       <c r="F25" t="n">
-        <v>98.46128988712232</v>
+        <v>98.46128988712229</v>
       </c>
       <c r="G25" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H25" t="n">
-        <v>97.79223380804254</v>
+        <v>97.79223380804251</v>
       </c>
       <c r="I25" t="n">
-        <v>49.38243733914931</v>
+        <v>49.38243733914927</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95710658746822</v>
+        <v>41.95710658746818</v>
       </c>
       <c r="S25" t="n">
         <v>142.8033418025965</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5877383835908</v>
+        <v>172.5877383835907</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2520615239729</v>
+        <v>239.2520615239728</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1778851880191</v>
+        <v>205.177885188019</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5632402007821</v>
+        <v>239.563240200782</v>
       </c>
       <c r="X25" t="n">
         <v>178.7498972532282</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6248952162859</v>
+        <v>171.6248952162858</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>339.9903569008137</v>
       </c>
       <c r="C26" t="n">
-        <v>322.5294070083406</v>
+        <v>322.5294070083407</v>
       </c>
       <c r="D26" t="n">
-        <v>311.939556858016</v>
+        <v>311.9395568580161</v>
       </c>
       <c r="E26" t="n">
         <v>339.1868853095949</v>
       </c>
       <c r="F26" t="n">
-        <v>364.1325609790445</v>
+        <v>364.1325609790446</v>
       </c>
       <c r="G26" t="n">
-        <v>368.1774829037198</v>
+        <v>368.1774829037199</v>
       </c>
       <c r="H26" t="n">
-        <v>251.8565168896063</v>
+        <v>251.8565168896064</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.42700439522565</v>
+        <v>66.42700439522567</v>
       </c>
       <c r="T26" t="n">
-        <v>161.1711672885686</v>
+        <v>161.1711672885687</v>
       </c>
       <c r="U26" t="n">
         <v>208.2516265572697</v>
@@ -2618,7 +2618,7 @@
         <v>306.4974839547461</v>
       </c>
       <c r="X26" t="n">
-        <v>326.9876159158021</v>
+        <v>326.9876159158022</v>
       </c>
       <c r="Y26" t="n">
         <v>343.4944538933867</v>
@@ -2713,25 +2713,25 @@
         <v>137.0884954192704</v>
       </c>
       <c r="C28" t="n">
-        <v>124.5033363359609</v>
+        <v>124.503336335961</v>
       </c>
       <c r="D28" t="n">
-        <v>105.8719882555454</v>
+        <v>105.8719882555455</v>
       </c>
       <c r="E28" t="n">
         <v>103.6904778839023</v>
       </c>
       <c r="F28" t="n">
-        <v>2.158233025859033</v>
+        <v>102.6775632602644</v>
       </c>
       <c r="G28" t="n">
         <v>123.2819834894578</v>
       </c>
       <c r="H28" t="n">
-        <v>102.0085071811846</v>
+        <v>55.08788765906999</v>
       </c>
       <c r="I28" t="n">
-        <v>53.59871071229133</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.17337996061022</v>
+        <v>46.17337996061026</v>
       </c>
       <c r="S28" t="n">
         <v>147.0196151757385</v>
@@ -2776,7 +2776,7 @@
         <v>243.7795135739241</v>
       </c>
       <c r="X28" t="n">
-        <v>182.9661706263702</v>
+        <v>182.9661706263703</v>
       </c>
       <c r="Y28" t="n">
         <v>175.8411685894279</v>
@@ -2792,22 +2792,22 @@
         <v>339.9903569008137</v>
       </c>
       <c r="C29" t="n">
-        <v>322.5294070083406</v>
+        <v>322.5294070083407</v>
       </c>
       <c r="D29" t="n">
-        <v>311.939556858016</v>
+        <v>311.9395568580161</v>
       </c>
       <c r="E29" t="n">
         <v>339.1868853095949</v>
       </c>
       <c r="F29" t="n">
-        <v>364.1325609790445</v>
+        <v>364.1325609790446</v>
       </c>
       <c r="G29" t="n">
-        <v>368.1774829037198</v>
+        <v>368.1774829037199</v>
       </c>
       <c r="H29" t="n">
-        <v>251.8565168896063</v>
+        <v>251.8565168896064</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.42700439522565</v>
+        <v>66.42700439522567</v>
       </c>
       <c r="T29" t="n">
-        <v>161.1711672885686</v>
+        <v>161.1711672885687</v>
       </c>
       <c r="U29" t="n">
         <v>208.2516265572697</v>
@@ -2855,7 +2855,7 @@
         <v>306.4974839547461</v>
       </c>
       <c r="X29" t="n">
-        <v>326.9876159158021</v>
+        <v>326.9876159158022</v>
       </c>
       <c r="Y29" t="n">
         <v>343.4944538933867</v>
@@ -2950,25 +2950,25 @@
         <v>137.0884954192704</v>
       </c>
       <c r="C31" t="n">
-        <v>124.5033363359609</v>
+        <v>124.503336335961</v>
       </c>
       <c r="D31" t="n">
-        <v>5.352658021141053</v>
+        <v>105.8719882555455</v>
       </c>
       <c r="E31" t="n">
         <v>103.6904778839023</v>
       </c>
       <c r="F31" t="n">
-        <v>102.6775632602643</v>
+        <v>102.6775632602644</v>
       </c>
       <c r="G31" t="n">
-        <v>123.2819834894578</v>
+        <v>76.36136396734328</v>
       </c>
       <c r="H31" t="n">
         <v>102.0085071811846</v>
       </c>
       <c r="I31" t="n">
-        <v>53.59871071229132</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.17337996061022</v>
+        <v>46.17337996061026</v>
       </c>
       <c r="S31" t="n">
         <v>147.0196151757385</v>
@@ -3013,7 +3013,7 @@
         <v>243.7795135739241</v>
       </c>
       <c r="X31" t="n">
-        <v>182.9661706263702</v>
+        <v>182.9661706263703</v>
       </c>
       <c r="Y31" t="n">
         <v>175.8411685894279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21073102208362</v>
+        <v>62.21073102208361</v>
       </c>
       <c r="T32" t="n">
         <v>156.9548939154266</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8722220461284</v>
+        <v>132.8722220461283</v>
       </c>
       <c r="C34" t="n">
         <v>120.2870629628189</v>
@@ -3193,19 +3193,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E34" t="n">
-        <v>99.47420451076025</v>
+        <v>99.47420451076023</v>
       </c>
       <c r="F34" t="n">
-        <v>98.46128988712232</v>
+        <v>98.46128988712231</v>
       </c>
       <c r="G34" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H34" t="n">
-        <v>97.79223380804254</v>
+        <v>97.79223380804252</v>
       </c>
       <c r="I34" t="n">
-        <v>49.38243733914931</v>
+        <v>49.38243733914929</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95710658746822</v>
+        <v>41.9571065874682</v>
       </c>
       <c r="S34" t="n">
         <v>142.8033418025965</v>
@@ -3241,19 +3241,19 @@
         <v>172.5877383835908</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2520615239729</v>
+        <v>239.2520615239728</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1778851880191</v>
+        <v>205.177885188019</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5632402007821</v>
+        <v>239.563240200782</v>
       </c>
       <c r="X34" t="n">
         <v>178.7498972532282</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6248952162859</v>
+        <v>171.6248952162858</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7740835276716</v>
+        <v>335.7740835276717</v>
       </c>
       <c r="C35" t="n">
-        <v>318.3131336351986</v>
+        <v>318.3131336351987</v>
       </c>
       <c r="D35" t="n">
-        <v>307.723283484874</v>
+        <v>307.7232834848741</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9706119364528</v>
+        <v>334.9706119364529</v>
       </c>
       <c r="F35" t="n">
         <v>359.9162876059025</v>
@@ -3281,7 +3281,7 @@
         <v>363.9612095305778</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6402435164643</v>
+        <v>247.6402435164644</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21073102208359</v>
+        <v>62.21073102208364</v>
       </c>
       <c r="T35" t="n">
         <v>156.9548939154266</v>
@@ -3332,7 +3332,7 @@
         <v>322.7713425426601</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2781805202446</v>
+        <v>339.2781805202447</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8722220461283</v>
+        <v>132.8722220461284</v>
       </c>
       <c r="C37" t="n">
         <v>120.2870629628189</v>
@@ -3430,19 +3430,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E37" t="n">
-        <v>99.47420451076022</v>
+        <v>99.47420451076026</v>
       </c>
       <c r="F37" t="n">
-        <v>98.46128988712229</v>
+        <v>98.46128988712233</v>
       </c>
       <c r="G37" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H37" t="n">
-        <v>97.79223380804251</v>
+        <v>97.79223380804255</v>
       </c>
       <c r="I37" t="n">
-        <v>49.38243733914928</v>
+        <v>49.38243733914932</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95710658746819</v>
+        <v>41.95710658746823</v>
       </c>
       <c r="S37" t="n">
         <v>142.8033418025965</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5877383835907</v>
+        <v>172.5877383835908</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2520615239728</v>
+        <v>239.2520615239729</v>
       </c>
       <c r="V37" t="n">
-        <v>205.177885188019</v>
+        <v>205.1778851880191</v>
       </c>
       <c r="W37" t="n">
-        <v>239.563240200782</v>
+        <v>239.5632402007821</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7498972532282</v>
+        <v>178.7498972532283</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6248952162858</v>
+        <v>171.6248952162859</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7740835276716</v>
+        <v>335.7740835276717</v>
       </c>
       <c r="C38" t="n">
-        <v>318.3131336351986</v>
+        <v>318.3131336351987</v>
       </c>
       <c r="D38" t="n">
-        <v>307.723283484874</v>
+        <v>307.7232834848741</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9706119364528</v>
+        <v>334.9706119364529</v>
       </c>
       <c r="F38" t="n">
         <v>359.9162876059025</v>
@@ -3518,7 +3518,7 @@
         <v>363.9612095305778</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6402435164643</v>
+        <v>247.6402435164644</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21073102208359</v>
+        <v>62.21073102208364</v>
       </c>
       <c r="T38" t="n">
         <v>156.9548939154266</v>
@@ -3569,7 +3569,7 @@
         <v>322.7713425426601</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2781805202446</v>
+        <v>339.2781805202447</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8722220461283</v>
+        <v>132.8722220461284</v>
       </c>
       <c r="C40" t="n">
         <v>120.2870629628189</v>
@@ -3667,19 +3667,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E40" t="n">
-        <v>99.47420451076022</v>
+        <v>99.47420451076026</v>
       </c>
       <c r="F40" t="n">
-        <v>98.46128988712229</v>
+        <v>98.46128988712233</v>
       </c>
       <c r="G40" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H40" t="n">
-        <v>97.79223380804251</v>
+        <v>97.79223380804255</v>
       </c>
       <c r="I40" t="n">
-        <v>49.38243733914928</v>
+        <v>49.38243733914933</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95710658746819</v>
+        <v>41.95710658746825</v>
       </c>
       <c r="S40" t="n">
         <v>142.8033418025965</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5877383835907</v>
+        <v>172.5877383835908</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2520615239728</v>
+        <v>239.2520615239729</v>
       </c>
       <c r="V40" t="n">
-        <v>205.177885188019</v>
+        <v>205.1778851880191</v>
       </c>
       <c r="W40" t="n">
-        <v>239.563240200782</v>
+        <v>239.5632402007821</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7498972532282</v>
+        <v>178.7498972532283</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6248952162858</v>
+        <v>171.6248952162859</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7740835276716</v>
+        <v>335.7740835276717</v>
       </c>
       <c r="C41" t="n">
-        <v>318.3131336351986</v>
+        <v>318.3131336351987</v>
       </c>
       <c r="D41" t="n">
-        <v>307.723283484874</v>
+        <v>307.7232834848741</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9706119364528</v>
+        <v>334.9706119364529</v>
       </c>
       <c r="F41" t="n">
         <v>359.9162876059025</v>
@@ -3755,7 +3755,7 @@
         <v>363.9612095305778</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6402435164643</v>
+        <v>247.6402435164644</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21073102208359</v>
+        <v>62.21073102208364</v>
       </c>
       <c r="T41" t="n">
         <v>156.9548939154266</v>
@@ -3806,7 +3806,7 @@
         <v>322.7713425426601</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2781805202446</v>
+        <v>339.2781805202447</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8722220461283</v>
+        <v>132.8722220461284</v>
       </c>
       <c r="C43" t="n">
         <v>120.2870629628189</v>
@@ -3904,19 +3904,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E43" t="n">
-        <v>99.47420451076022</v>
+        <v>99.47420451076026</v>
       </c>
       <c r="F43" t="n">
-        <v>98.46128988712229</v>
+        <v>98.46128988712233</v>
       </c>
       <c r="G43" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H43" t="n">
-        <v>97.79223380804251</v>
+        <v>97.79223380804255</v>
       </c>
       <c r="I43" t="n">
-        <v>49.38243733914927</v>
+        <v>49.38243733914932</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95710658746818</v>
+        <v>41.95710658746823</v>
       </c>
       <c r="S43" t="n">
         <v>142.8033418025965</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5877383835907</v>
+        <v>172.5877383835908</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2520615239728</v>
+        <v>239.2520615239729</v>
       </c>
       <c r="V43" t="n">
-        <v>205.177885188019</v>
+        <v>205.1778851880191</v>
       </c>
       <c r="W43" t="n">
-        <v>239.563240200782</v>
+        <v>239.5632402007821</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7498972532282</v>
+        <v>178.7498972532283</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6248952162858</v>
+        <v>171.6248952162859</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>335.7740835276717</v>
       </c>
       <c r="C44" t="n">
-        <v>318.3131336351986</v>
+        <v>318.3131336351987</v>
       </c>
       <c r="D44" t="n">
         <v>307.7232834848741</v>
@@ -3992,7 +3992,7 @@
         <v>363.9612095305778</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6402435164643</v>
+        <v>247.6402435164644</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>322.7713425426601</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2781805202446</v>
+        <v>339.2781805202447</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9990636068732</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59295857397495</v>
+        <v>89.59295857397494</v>
       </c>
       <c r="I45" t="n">
-        <v>18.80325536294555</v>
+        <v>18.80325536294554</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.117729650315141</v>
+        <v>0.1177296503151126</v>
       </c>
       <c r="S45" t="n">
         <v>128.1359745639747</v>
@@ -4141,16 +4141,16 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E46" t="n">
-        <v>99.47420451076025</v>
+        <v>99.47420451076026</v>
       </c>
       <c r="F46" t="n">
-        <v>98.46128988712232</v>
+        <v>98.46128988712233</v>
       </c>
       <c r="G46" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H46" t="n">
-        <v>97.79223380804254</v>
+        <v>97.79223380804255</v>
       </c>
       <c r="I46" t="n">
         <v>49.38243733914933</v>
@@ -4198,7 +4198,7 @@
         <v>239.5632402007821</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7498972532282</v>
+        <v>178.7498972532283</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6248952162859</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.47702561145542</v>
+        <v>38.89003846925014</v>
       </c>
       <c r="C8" t="n">
-        <v>45.47702561145542</v>
+        <v>38.89003846925014</v>
       </c>
       <c r="D8" t="n">
-        <v>45.47702561145542</v>
+        <v>23.52617846538006</v>
       </c>
       <c r="E8" t="n">
-        <v>36.08302262191755</v>
+        <v>23.52617846538006</v>
       </c>
       <c r="F8" t="n">
-        <v>20.71916261804747</v>
+        <v>16.58067771617659</v>
       </c>
       <c r="G8" t="n">
-        <v>5.355302614177393</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="H8" t="n">
-        <v>5.355302614177393</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="I8" t="n">
-        <v>5.355302614177393</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="J8" t="n">
         <v>1.21681771230651</v>
       </c>
       <c r="K8" t="n">
-        <v>1.21681771230651</v>
+        <v>16.27493690209957</v>
       </c>
       <c r="L8" t="n">
-        <v>1.21681771230651</v>
+        <v>16.27493690209957</v>
       </c>
       <c r="M8" t="n">
-        <v>15.66652804594631</v>
+        <v>31.33305609189263</v>
       </c>
       <c r="N8" t="n">
-        <v>30.72464723573938</v>
+        <v>31.33305609189263</v>
       </c>
       <c r="O8" t="n">
         <v>45.78276642553244</v>
@@ -4826,28 +4826,28 @@
         <v>60.8408856153255</v>
       </c>
       <c r="R8" t="n">
-        <v>45.47702561145542</v>
+        <v>60.8408856153255</v>
       </c>
       <c r="S8" t="n">
-        <v>45.47702561145542</v>
+        <v>60.8408856153255</v>
       </c>
       <c r="T8" t="n">
-        <v>45.47702561145542</v>
+        <v>54.25389847312022</v>
       </c>
       <c r="U8" t="n">
-        <v>45.47702561145542</v>
+        <v>54.25389847312022</v>
       </c>
       <c r="V8" t="n">
-        <v>45.47702561145542</v>
+        <v>38.89003846925014</v>
       </c>
       <c r="W8" t="n">
-        <v>45.47702561145542</v>
+        <v>38.89003846925014</v>
       </c>
       <c r="X8" t="n">
-        <v>45.47702561145542</v>
+        <v>38.89003846925014</v>
       </c>
       <c r="Y8" t="n">
-        <v>45.47702561145542</v>
+        <v>38.89003846925014</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60.8408856153255</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="C9" t="n">
-        <v>60.8408856153255</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="D9" t="n">
-        <v>60.8408856153255</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="E9" t="n">
-        <v>60.8408856153255</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="F9" t="n">
-        <v>45.47702561145542</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="G9" t="n">
-        <v>30.11316560758534</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="H9" t="n">
-        <v>14.74930560371526</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="I9" t="n">
         <v>1.21681771230651</v>
       </c>
       <c r="J9" t="n">
-        <v>1.21681771230651</v>
+        <v>5.107635353005265</v>
       </c>
       <c r="K9" t="n">
-        <v>16.27493690209957</v>
+        <v>5.107635353005265</v>
       </c>
       <c r="L9" t="n">
-        <v>31.33305609189263</v>
+        <v>20.16575454279833</v>
       </c>
       <c r="M9" t="n">
-        <v>45.78276642553244</v>
+        <v>35.22387373259139</v>
       </c>
       <c r="N9" t="n">
-        <v>60.8408856153255</v>
+        <v>50.28199292238445</v>
       </c>
       <c r="O9" t="n">
-        <v>60.8408856153255</v>
+        <v>50.28199292238445</v>
       </c>
       <c r="P9" t="n">
-        <v>60.8408856153255</v>
+        <v>50.28199292238445</v>
       </c>
       <c r="Q9" t="n">
         <v>60.8408856153255</v>
       </c>
       <c r="R9" t="n">
-        <v>60.8408856153255</v>
+        <v>45.47702561145542</v>
       </c>
       <c r="S9" t="n">
-        <v>60.8408856153255</v>
+        <v>31.94453772004666</v>
       </c>
       <c r="T9" t="n">
-        <v>60.8408856153255</v>
+        <v>31.94453772004666</v>
       </c>
       <c r="U9" t="n">
-        <v>60.8408856153255</v>
+        <v>16.58067771617659</v>
       </c>
       <c r="V9" t="n">
-        <v>60.8408856153255</v>
+        <v>16.58067771617659</v>
       </c>
       <c r="W9" t="n">
-        <v>60.8408856153255</v>
+        <v>16.58067771617659</v>
       </c>
       <c r="X9" t="n">
-        <v>60.8408856153255</v>
+        <v>16.58067771617659</v>
       </c>
       <c r="Y9" t="n">
-        <v>60.8408856153255</v>
+        <v>1.21681771230651</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="C10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="D10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="E10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="F10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="G10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="H10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="I10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="J10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="K10" t="n">
         <v>1.21681771230651</v>
       </c>
       <c r="L10" t="n">
-        <v>16.27493690209957</v>
+        <v>13.3917651469412</v>
       </c>
       <c r="M10" t="n">
-        <v>31.33305609189263</v>
+        <v>28.44988433673426</v>
       </c>
       <c r="N10" t="n">
         <v>43.50800352652732</v>
@@ -4984,28 +4984,28 @@
         <v>45.47702561145542</v>
       </c>
       <c r="R10" t="n">
-        <v>31.94453772004666</v>
+        <v>45.47702561145542</v>
       </c>
       <c r="S10" t="n">
-        <v>31.94453772004666</v>
+        <v>45.47702561145542</v>
       </c>
       <c r="T10" t="n">
         <v>31.94453772004666</v>
       </c>
       <c r="U10" t="n">
-        <v>16.58067771617659</v>
+        <v>31.94453772004666</v>
       </c>
       <c r="V10" t="n">
         <v>16.58067771617659</v>
       </c>
       <c r="W10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="X10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2031.380672782402</v>
+        <v>1285.115204605478</v>
       </c>
       <c r="C11" t="n">
-        <v>1707.718113328418</v>
+        <v>1285.115204605478</v>
       </c>
       <c r="D11" t="n">
-        <v>1394.752372208094</v>
+        <v>972.1494634851549</v>
       </c>
       <c r="E11" t="n">
-        <v>1054.264077096277</v>
+        <v>801.9882753379832</v>
       </c>
       <c r="F11" t="n">
-        <v>688.5781297930962</v>
+        <v>436.3023280348027</v>
       </c>
       <c r="G11" t="n">
-        <v>318.8064027680215</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="H11" t="n">
         <v>66.53060100972799</v>
@@ -5039,22 +5039,22 @@
         <v>66.53060100972799</v>
       </c>
       <c r="J11" t="n">
-        <v>255.473421841511</v>
+        <v>255.4734218415106</v>
       </c>
       <c r="K11" t="n">
-        <v>589.3882501407252</v>
+        <v>589.3882501407243</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.540883272728</v>
+        <v>1040.540883272727</v>
       </c>
       <c r="M11" t="n">
-        <v>1574.204552882219</v>
+        <v>1574.204552882218</v>
       </c>
       <c r="N11" t="n">
         <v>2121.117266973014</v>
       </c>
       <c r="O11" t="n">
-        <v>2624.216173022809</v>
+        <v>2624.216173022808</v>
       </c>
       <c r="P11" t="n">
         <v>3019.09844887279</v>
@@ -5072,19 +5072,19 @@
         <v>3100.882348076296</v>
       </c>
       <c r="U11" t="n">
-        <v>2892.65189008804</v>
+        <v>2892.651890088041</v>
       </c>
       <c r="V11" t="n">
-        <v>2606.888960230896</v>
+        <v>2606.888960230897</v>
       </c>
       <c r="W11" t="n">
-        <v>2606.888960230896</v>
+        <v>2299.42026244721</v>
       </c>
       <c r="X11" t="n">
-        <v>2606.888960230896</v>
+        <v>1971.254461672558</v>
       </c>
       <c r="Y11" t="n">
-        <v>2372.680555360097</v>
+        <v>1626.415087183173</v>
       </c>
     </row>
     <row r="12">
@@ -5136,7 +5136,7 @@
         <v>2097.422506386624</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.99876737301</v>
+        <v>2407.326025612236</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.018834796051</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>774.5187374504715</v>
+        <v>723.6390934240003</v>
       </c>
       <c r="C13" t="n">
-        <v>650.8825120089916</v>
+        <v>600.0028679825205</v>
       </c>
       <c r="D13" t="n">
-        <v>546.0658300830828</v>
+        <v>495.1861860566119</v>
       </c>
       <c r="E13" t="n">
-        <v>443.4526939871166</v>
+        <v>392.573049960646</v>
       </c>
       <c r="F13" t="n">
-        <v>341.8627039756332</v>
+        <v>290.9830599491627</v>
       </c>
       <c r="G13" t="n">
-        <v>219.460168278096</v>
+        <v>219.4601682780956</v>
       </c>
       <c r="H13" t="n">
-        <v>118.5459924879053</v>
+        <v>118.5459924879051</v>
       </c>
       <c r="I13" t="n">
         <v>66.53060100972799</v>
@@ -5200,49 +5200,49 @@
         <v>156.0755198923075</v>
       </c>
       <c r="K13" t="n">
-        <v>404.5002987676717</v>
+        <v>404.5002987676719</v>
       </c>
       <c r="L13" t="n">
-        <v>765.5086298047136</v>
+        <v>765.508629804714</v>
       </c>
       <c r="M13" t="n">
-        <v>1154.116928388043</v>
+        <v>1154.116928388044</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.975303452215</v>
+        <v>1539.975303452216</v>
       </c>
       <c r="O13" t="n">
-        <v>1883.750968551096</v>
+        <v>1883.750968551097</v>
       </c>
       <c r="P13" t="n">
         <v>2160.797668383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.834639101056</v>
+        <v>2282.834639101057</v>
       </c>
       <c r="R13" t="n">
-        <v>2238.319581715486</v>
+        <v>2238.319581715487</v>
       </c>
       <c r="S13" t="n">
-        <v>2091.93964027423</v>
+        <v>2091.939640274232</v>
       </c>
       <c r="T13" t="n">
-        <v>1915.474449761263</v>
+        <v>1915.474449761266</v>
       </c>
       <c r="U13" t="n">
-        <v>1671.671559106497</v>
+        <v>1671.671559106499</v>
       </c>
       <c r="V13" t="n">
-        <v>1462.287028387037</v>
+        <v>1462.28702838704</v>
       </c>
       <c r="W13" t="n">
-        <v>1218.169815836504</v>
+        <v>1218.169815836506</v>
       </c>
       <c r="X13" t="n">
-        <v>1086.359866451387</v>
+        <v>1035.480222424916</v>
       </c>
       <c r="Y13" t="n">
-        <v>910.8672447942843</v>
+        <v>859.9876007678129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2031.380672782402</v>
+        <v>1626.415087183171</v>
       </c>
       <c r="C14" t="n">
-        <v>1707.718113328418</v>
+        <v>1302.752527729187</v>
       </c>
       <c r="D14" t="n">
-        <v>1394.752372208094</v>
+        <v>989.7867866088638</v>
       </c>
       <c r="E14" t="n">
-        <v>1054.264077096277</v>
+        <v>989.7867866088638</v>
       </c>
       <c r="F14" t="n">
-        <v>688.5781297930962</v>
+        <v>624.1008393056835</v>
       </c>
       <c r="G14" t="n">
-        <v>318.8064027680215</v>
+        <v>254.3291122806089</v>
       </c>
       <c r="H14" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="I14" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="J14" t="n">
-        <v>255.473421841511</v>
+        <v>255.4734218415109</v>
       </c>
       <c r="K14" t="n">
         <v>589.3882501407245</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.540883272727</v>
+        <v>1040.540883272728</v>
       </c>
       <c r="M14" t="n">
         <v>1574.204552882219</v>
@@ -5291,37 +5291,37 @@
         <v>2121.117266973014</v>
       </c>
       <c r="O14" t="n">
-        <v>2624.216173022809</v>
+        <v>2624.216173022808</v>
       </c>
       <c r="P14" t="n">
-        <v>3019.098448872791</v>
+        <v>3019.09844887279</v>
       </c>
       <c r="Q14" t="n">
-        <v>3267.465846163568</v>
+        <v>3267.465846163567</v>
       </c>
       <c r="R14" t="n">
-        <v>3326.530050486401</v>
+        <v>3326.530050486399</v>
       </c>
       <c r="S14" t="n">
-        <v>3261.556786601219</v>
+        <v>3261.556786601218</v>
       </c>
       <c r="T14" t="n">
-        <v>3261.556786601219</v>
+        <v>3100.882348076296</v>
       </c>
       <c r="U14" t="n">
-        <v>3053.326328612963</v>
+        <v>2892.651890088039</v>
       </c>
       <c r="V14" t="n">
-        <v>2767.563398755819</v>
+        <v>2606.888960230895</v>
       </c>
       <c r="W14" t="n">
-        <v>2460.094700972132</v>
+        <v>2299.420262447209</v>
       </c>
       <c r="X14" t="n">
-        <v>2376.220047271787</v>
+        <v>1971.254461672556</v>
       </c>
       <c r="Y14" t="n">
-        <v>2031.380672782402</v>
+        <v>1626.415087183171</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>176.0217261985366</v>
       </c>
       <c r="H15" t="n">
-        <v>85.52378824502654</v>
+        <v>85.52378824502651</v>
       </c>
       <c r="I15" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="J15" t="n">
-        <v>159.5730619914666</v>
+        <v>160.2458037522404</v>
       </c>
       <c r="K15" t="n">
-        <v>397.9020949412218</v>
+        <v>398.5748367019957</v>
       </c>
       <c r="L15" t="n">
-        <v>764.6874325267652</v>
+        <v>765.3601742875389</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.065489514643</v>
+        <v>1212.738231275417</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.692957371782</v>
+        <v>1686.365699132556</v>
       </c>
       <c r="O15" t="n">
         <v>2096.74976462585</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>774.5187374504716</v>
+        <v>723.6390934239993</v>
       </c>
       <c r="C16" t="n">
-        <v>650.8825120089916</v>
+        <v>600.0028679825195</v>
       </c>
       <c r="D16" t="n">
-        <v>546.0658300830829</v>
+        <v>495.1861860566109</v>
       </c>
       <c r="E16" t="n">
-        <v>443.4526939871168</v>
+        <v>392.5730499606449</v>
       </c>
       <c r="F16" t="n">
-        <v>341.8627039756334</v>
+        <v>290.9830599491617</v>
       </c>
       <c r="G16" t="n">
-        <v>219.460168278096</v>
+        <v>168.5805242516249</v>
       </c>
       <c r="H16" t="n">
-        <v>118.5459924879053</v>
+        <v>67.66634846143374</v>
       </c>
       <c r="I16" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="J16" t="n">
-        <v>156.0755198923075</v>
+        <v>156.0755198923076</v>
       </c>
       <c r="K16" t="n">
-        <v>404.5002987676717</v>
+        <v>404.5002987676719</v>
       </c>
       <c r="L16" t="n">
-        <v>765.5086298047133</v>
+        <v>765.508629804714</v>
       </c>
       <c r="M16" t="n">
-        <v>1154.116928388043</v>
+        <v>1154.116928388044</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.975303452215</v>
+        <v>1539.975303452216</v>
       </c>
       <c r="O16" t="n">
-        <v>1883.750968551096</v>
+        <v>1883.750968551097</v>
       </c>
       <c r="P16" t="n">
         <v>2160.797668383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.834639101055</v>
+        <v>2282.834639101057</v>
       </c>
       <c r="R16" t="n">
-        <v>2238.319581715485</v>
+        <v>2238.319581715487</v>
       </c>
       <c r="S16" t="n">
-        <v>2091.93964027423</v>
+        <v>2091.939640274232</v>
       </c>
       <c r="T16" t="n">
-        <v>1915.474449761263</v>
+        <v>1915.474449761265</v>
       </c>
       <c r="U16" t="n">
-        <v>1671.671559106496</v>
+        <v>1671.671559106499</v>
       </c>
       <c r="V16" t="n">
-        <v>1462.287028387037</v>
+        <v>1462.287028387038</v>
       </c>
       <c r="W16" t="n">
-        <v>1218.169815836503</v>
+        <v>1218.169815836505</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.480222424913</v>
+        <v>1035.480222424915</v>
       </c>
       <c r="Y16" t="n">
-        <v>910.8672447942843</v>
+        <v>859.9876007678118</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1834.316313212303</v>
+        <v>1641.354078667739</v>
       </c>
       <c r="C17" t="n">
-        <v>1512.787895398971</v>
+        <v>1641.354078667739</v>
       </c>
       <c r="D17" t="n">
-        <v>1201.9562959193</v>
+        <v>1330.522479188069</v>
       </c>
       <c r="E17" t="n">
-        <v>863.6021424481355</v>
+        <v>1047.861652174318</v>
       </c>
       <c r="F17" t="n">
-        <v>684.3098465117907</v>
+        <v>684.3098465117906</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6722611273688</v>
+        <v>316.6722611273687</v>
       </c>
       <c r="H17" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="I17" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="J17" t="n">
-        <v>255.473421841511</v>
+        <v>255.4734218415119</v>
       </c>
       <c r="K17" t="n">
-        <v>589.3882501407245</v>
+        <v>589.3882501407254</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.540883272727</v>
+        <v>1040.540883272728</v>
       </c>
       <c r="M17" t="n">
         <v>1574.204552882219</v>
@@ -5534,31 +5534,31 @@
         <v>3019.09844887279</v>
       </c>
       <c r="Q17" t="n">
-        <v>3267.465846163566</v>
+        <v>3267.465846163567</v>
       </c>
       <c r="R17" t="n">
-        <v>3326.530050486401</v>
+        <v>3326.530050486399</v>
       </c>
       <c r="S17" t="n">
         <v>3263.690928241871</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.150631357602</v>
+        <v>3105.150631357601</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.150631357602</v>
+        <v>2899.054315009997</v>
       </c>
       <c r="V17" t="n">
-        <v>2821.521843141111</v>
+        <v>2615.425526793506</v>
       </c>
       <c r="W17" t="n">
-        <v>2516.187286998077</v>
+        <v>2310.090970650472</v>
       </c>
       <c r="X17" t="n">
-        <v>2516.187286998077</v>
+        <v>1984.059311516472</v>
       </c>
       <c r="Y17" t="n">
-        <v>2173.482054149345</v>
+        <v>1641.354078667739</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>176.0217261985366</v>
       </c>
       <c r="H18" t="n">
-        <v>85.52378824502654</v>
+        <v>85.52378824502651</v>
       </c>
       <c r="I18" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="J18" t="n">
         <v>160.2458037522404</v>
       </c>
       <c r="K18" t="n">
-        <v>397.9020949412218</v>
+        <v>398.5748367019957</v>
       </c>
       <c r="L18" t="n">
-        <v>764.6874325267652</v>
+        <v>765.3601742875389</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.065489514643</v>
+        <v>1212.738231275417</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.692957371782</v>
+        <v>1686.365699132556</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.74976462585</v>
+        <v>2097.422506386624</v>
       </c>
       <c r="P18" t="n">
         <v>2407.326025612236</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.5797459659024</v>
+        <v>759.5797459659022</v>
       </c>
       <c r="C19" t="n">
-        <v>638.0776621650751</v>
+        <v>638.077662165075</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3951218798192</v>
+        <v>535.395121879819</v>
       </c>
       <c r="E19" t="n">
-        <v>434.9161274245058</v>
+        <v>434.9161274245056</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4602790536752</v>
+        <v>335.460279053675</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1918849967905</v>
+        <v>215.1918849967904</v>
       </c>
       <c r="H19" t="n">
-        <v>116.4118508472526</v>
+        <v>116.4118508472525</v>
       </c>
       <c r="I19" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="J19" t="n">
         <v>158.1671921143112</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6836432116792</v>
+        <v>408.6836432116795</v>
       </c>
       <c r="L19" t="n">
-        <v>771.783646470725</v>
+        <v>771.7836464707252</v>
       </c>
       <c r="M19" t="n">
         <v>1162.483617276059</v>
@@ -5698,13 +5698,13 @@
         <v>2257.187101132169</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.941301331567</v>
+        <v>2112.941301331566</v>
       </c>
       <c r="T19" t="n">
         <v>1938.610252459252</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.941503445139</v>
+        <v>1696.941503445138</v>
       </c>
       <c r="V19" t="n">
         <v>1489.691114366331</v>
@@ -5716,7 +5716,7 @@
         <v>1067.152591685513</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.7941116690623</v>
+        <v>893.7941116690622</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1691.059119109228</v>
+        <v>1302.188337730699</v>
       </c>
       <c r="C20" t="n">
-        <v>1691.059119109228</v>
+        <v>980.6599199173666</v>
       </c>
       <c r="D20" t="n">
-        <v>1380.227519629557</v>
+        <v>669.8283204376958</v>
       </c>
       <c r="E20" t="n">
-        <v>1041.873366158393</v>
+        <v>331.4741669665314</v>
       </c>
       <c r="F20" t="n">
-        <v>678.3215604958651</v>
+        <v>316.6722611273687</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6722611273688</v>
+        <v>316.6722611273687</v>
       </c>
       <c r="H20" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="I20" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="J20" t="n">
-        <v>255.473421841511</v>
+        <v>255.4734218415106</v>
       </c>
       <c r="K20" t="n">
-        <v>589.3882501407245</v>
+        <v>589.3882501407243</v>
       </c>
       <c r="L20" t="n">
         <v>1040.540883272727</v>
       </c>
       <c r="M20" t="n">
-        <v>1574.204552882219</v>
+        <v>1574.204552882218</v>
       </c>
       <c r="N20" t="n">
-        <v>2121.117266973014</v>
+        <v>2121.117266973013</v>
       </c>
       <c r="O20" t="n">
-        <v>2624.216173022808</v>
+        <v>2624.216173022807</v>
       </c>
       <c r="P20" t="n">
         <v>3019.09844887279</v>
       </c>
       <c r="Q20" t="n">
-        <v>3267.465846163566</v>
+        <v>3267.465846163567</v>
       </c>
       <c r="R20" t="n">
-        <v>3326.530050486401</v>
+        <v>3326.530050486399</v>
       </c>
       <c r="S20" t="n">
-        <v>3326.530050486401</v>
+        <v>3263.690928241871</v>
       </c>
       <c r="T20" t="n">
-        <v>3167.989753602132</v>
+        <v>3105.150631357601</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.893437254527</v>
+        <v>2899.054315009998</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.264649038036</v>
+        <v>2615.425526793507</v>
       </c>
       <c r="W20" t="n">
-        <v>2372.930092895002</v>
+        <v>2310.090970650473</v>
       </c>
       <c r="X20" t="n">
-        <v>2372.930092895002</v>
+        <v>1984.059311516472</v>
       </c>
       <c r="Y20" t="n">
-        <v>2030.22486004627</v>
+        <v>1641.354078667741</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>176.0217261985366</v>
       </c>
       <c r="H21" t="n">
-        <v>85.52378824502654</v>
+        <v>85.52378824502651</v>
       </c>
       <c r="I21" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="J21" t="n">
         <v>160.2458037522404</v>
       </c>
       <c r="K21" t="n">
-        <v>398.5748367019957</v>
+        <v>397.9020949412218</v>
       </c>
       <c r="L21" t="n">
-        <v>765.3601742875389</v>
+        <v>764.6874325267652</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.738231275417</v>
+        <v>1212.065489514643</v>
       </c>
       <c r="N21" t="n">
-        <v>1686.365699132556</v>
+        <v>1685.692957371782</v>
       </c>
       <c r="O21" t="n">
-        <v>2097.422506386624</v>
+        <v>2096.74976462585</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.99876737301</v>
+        <v>2407.326025612236</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.018834796051</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.5797459659024</v>
+        <v>759.5797459659022</v>
       </c>
       <c r="C22" t="n">
-        <v>638.0776621650751</v>
+        <v>638.077662165075</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3951218798192</v>
+        <v>535.395121879819</v>
       </c>
       <c r="E22" t="n">
-        <v>434.9161274245058</v>
+        <v>434.9161274245056</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4602790536752</v>
+        <v>335.460279053675</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1918849967905</v>
+        <v>215.1918849967904</v>
       </c>
       <c r="H22" t="n">
-        <v>116.4118508472526</v>
+        <v>116.4118508472525</v>
       </c>
       <c r="I22" t="n">
-        <v>66.53060100972802</v>
+        <v>66.53060100972799</v>
       </c>
       <c r="J22" t="n">
         <v>158.1671921143112</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6836432116801</v>
+        <v>408.6836432116795</v>
       </c>
       <c r="L22" t="n">
-        <v>771.7836464707259</v>
+        <v>771.7836464707252</v>
       </c>
       <c r="M22" t="n">
         <v>1162.483617276059</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.433664562235</v>
+        <v>1550.433664562234</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.30100188312</v>
+        <v>1896.301001883119</v>
       </c>
       <c r="P22" t="n">
         <v>2175.439373937827</v>
@@ -5935,13 +5935,13 @@
         <v>2257.187101132169</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.941301331567</v>
+        <v>2112.941301331566</v>
       </c>
       <c r="T22" t="n">
         <v>1938.610252459252</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.941503445139</v>
+        <v>1696.941503445138</v>
       </c>
       <c r="V22" t="n">
         <v>1489.691114366331</v>
@@ -5953,7 +5953,7 @@
         <v>1067.152591685513</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.7941116690623</v>
+        <v>893.7941116690622</v>
       </c>
     </row>
     <row r="23">
@@ -5975,52 +5975,52 @@
         <v>1062.481804933662</v>
       </c>
       <c r="F23" t="n">
-        <v>698.929999271134</v>
+        <v>698.9299992711342</v>
       </c>
       <c r="G23" t="n">
         <v>331.2924138867114</v>
       </c>
       <c r="H23" t="n">
-        <v>81.1507537690706</v>
+        <v>81.15075376907062</v>
       </c>
       <c r="I23" t="n">
-        <v>81.1507537690706</v>
+        <v>81.15075376907062</v>
       </c>
       <c r="J23" t="n">
         <v>437.4992236212066</v>
       </c>
       <c r="K23" t="n">
-        <v>810.3182342756998</v>
+        <v>1092.318010365873</v>
       </c>
       <c r="L23" t="n">
-        <v>1261.470867407702</v>
+        <v>1771.548521239859</v>
       </c>
       <c r="M23" t="n">
-        <v>2240.152935175098</v>
+        <v>2305.212190849351</v>
       </c>
       <c r="N23" t="n">
-        <v>2787.065649265893</v>
+        <v>2852.124904940146</v>
       </c>
       <c r="O23" t="n">
-        <v>3290.164555315686</v>
+        <v>3355.223810989939</v>
       </c>
       <c r="P23" t="n">
-        <v>3685.046831165668</v>
+        <v>3750.106086839921</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.414228456445</v>
+        <v>3998.473484130698</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.53768845353</v>
+        <v>4057.537688453531</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.698566209001</v>
+        <v>3994.698566209002</v>
       </c>
       <c r="T23" t="n">
-        <v>3836.158269324732</v>
+        <v>3836.158269324733</v>
       </c>
       <c r="U23" t="n">
-        <v>3630.061952977129</v>
+        <v>3630.061952977128</v>
       </c>
       <c r="V23" t="n">
         <v>3346.433164760638</v>
@@ -6054,7 +6054,7 @@
         <v>473.5391274429874</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0045694698723</v>
+        <v>327.0045694698724</v>
       </c>
       <c r="G24" t="n">
         <v>190.6418789578792</v>
@@ -6063,22 +6063,22 @@
         <v>100.1439410043691</v>
       </c>
       <c r="I24" t="n">
-        <v>81.1507537690706</v>
+        <v>81.15075376907062</v>
       </c>
       <c r="J24" t="n">
-        <v>174.1932147508091</v>
+        <v>174.865956511583</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5222477005644</v>
+        <v>413.1949894613383</v>
       </c>
       <c r="L24" t="n">
-        <v>779.3075852861077</v>
+        <v>779.9803270468817</v>
       </c>
       <c r="M24" t="n">
-        <v>1226.685642273986</v>
+        <v>1227.35838403476</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.313110131125</v>
+        <v>1700.985851891899</v>
       </c>
       <c r="O24" t="n">
         <v>2111.369917385192</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.199898725244</v>
+        <v>774.1998987252448</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6978149244168</v>
+        <v>652.6978149244177</v>
       </c>
       <c r="D25" t="n">
-        <v>550.0152746391608</v>
+        <v>550.0152746391617</v>
       </c>
       <c r="E25" t="n">
-        <v>449.5362801838475</v>
+        <v>449.5362801838483</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0804318130168</v>
+        <v>350.0804318130177</v>
       </c>
       <c r="G25" t="n">
-        <v>229.8120377561322</v>
+        <v>229.8120377561331</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0320036065952</v>
+        <v>131.0320036065951</v>
       </c>
       <c r="I25" t="n">
-        <v>81.1507537690706</v>
+        <v>81.15075376907062</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7873448736536</v>
+        <v>172.7873448736538</v>
       </c>
       <c r="K25" t="n">
-        <v>423.3037959710215</v>
+        <v>423.3037959710219</v>
       </c>
       <c r="L25" t="n">
-        <v>786.4037992300673</v>
+        <v>786.4037992300678</v>
       </c>
       <c r="M25" t="n">
         <v>1177.103770035401</v>
@@ -6169,7 +6169,7 @@
         <v>2314.188169636428</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.807253891511</v>
+        <v>2271.80725389151</v>
       </c>
       <c r="S25" t="n">
         <v>2127.561454090908</v>
@@ -6184,13 +6184,13 @@
         <v>1504.311267125673</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.328196215792</v>
+        <v>1262.328196215793</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.772744444854</v>
+        <v>1081.772744444855</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.414264428404</v>
+        <v>908.4142644284047</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2059.965965368571</v>
+        <v>2059.965965368573</v>
       </c>
       <c r="C26" t="n">
-        <v>1734.178685562166</v>
+        <v>1734.178685562168</v>
       </c>
       <c r="D26" t="n">
-        <v>1419.088224089423</v>
+        <v>1419.088224089425</v>
       </c>
       <c r="E26" t="n">
-        <v>1076.475208625186</v>
+        <v>1076.475208625187</v>
       </c>
       <c r="F26" t="n">
-        <v>708.6645409695852</v>
+        <v>708.6645409695869</v>
       </c>
       <c r="G26" t="n">
         <v>336.7680935920906</v>
       </c>
       <c r="H26" t="n">
-        <v>82.3675714813771</v>
+        <v>82.36757148137713</v>
       </c>
       <c r="I26" t="n">
-        <v>82.3675714813771</v>
+        <v>82.36757148137713</v>
       </c>
       <c r="J26" t="n">
         <v>271.31039231316</v>
       </c>
       <c r="K26" t="n">
-        <v>605.2252206123735</v>
+        <v>685.6638731832961</v>
       </c>
       <c r="L26" t="n">
-        <v>1056.377853744376</v>
+        <v>1136.816506315299</v>
       </c>
       <c r="M26" t="n">
-        <v>1590.041523353867</v>
+        <v>1670.48017592479</v>
       </c>
       <c r="N26" t="n">
-        <v>2136.954237444663</v>
+        <v>2217.392890015585</v>
       </c>
       <c r="O26" t="n">
-        <v>2822.232879087937</v>
+        <v>3097.483975515497</v>
       </c>
       <c r="P26" t="n">
-        <v>3535.695876027687</v>
+        <v>3810.946972455247</v>
       </c>
       <c r="Q26" t="n">
-        <v>3994.255114071769</v>
+        <v>4059.314369746024</v>
       </c>
       <c r="R26" t="n">
-        <v>4118.378574068855</v>
+        <v>4118.378574068856</v>
       </c>
       <c r="S26" t="n">
-        <v>4051.280589831253</v>
+        <v>4051.280589831254</v>
       </c>
       <c r="T26" t="n">
-        <v>3888.481430953911</v>
+        <v>3888.481430953912</v>
       </c>
       <c r="U26" t="n">
-        <v>3678.126252613234</v>
+        <v>3678.126252613236</v>
       </c>
       <c r="V26" t="n">
-        <v>3390.23860240367</v>
+        <v>3390.238602403672</v>
       </c>
       <c r="W26" t="n">
-        <v>3080.645184267563</v>
+        <v>3080.645184267565</v>
       </c>
       <c r="X26" t="n">
-        <v>2750.354663140491</v>
+        <v>2750.354663140492</v>
       </c>
       <c r="Y26" t="n">
-        <v>2403.390568298686</v>
+        <v>2403.390568298688</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>101.3607587166756</v>
       </c>
       <c r="I27" t="n">
-        <v>82.3675714813771</v>
+        <v>82.36757148137713</v>
       </c>
       <c r="J27" t="n">
-        <v>175.4100324631154</v>
+        <v>176.0827742238895</v>
       </c>
       <c r="K27" t="n">
-        <v>413.7390654128706</v>
+        <v>414.4118071736448</v>
       </c>
       <c r="L27" t="n">
-        <v>780.524402998414</v>
+        <v>781.1971447591882</v>
       </c>
       <c r="M27" t="n">
         <v>1227.902459986292</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>703.6940733846109</v>
+        <v>703.6940733846104</v>
       </c>
       <c r="C28" t="n">
-        <v>577.9331275907109</v>
+        <v>577.9331275907105</v>
       </c>
       <c r="D28" t="n">
-        <v>470.9917253123821</v>
+        <v>470.9917253123817</v>
       </c>
       <c r="E28" t="n">
-        <v>366.253868863996</v>
+        <v>366.2538688639955</v>
       </c>
       <c r="F28" t="n">
-        <v>364.0738355045424</v>
+        <v>262.5391585000921</v>
       </c>
       <c r="G28" t="n">
-        <v>239.546579454585</v>
+        <v>138.0119024501347</v>
       </c>
       <c r="H28" t="n">
-        <v>136.5076833119744</v>
+        <v>82.36757148137713</v>
       </c>
       <c r="I28" t="n">
-        <v>82.3675714813771</v>
+        <v>82.36757148137713</v>
       </c>
       <c r="J28" t="n">
-        <v>169.8300519465497</v>
+        <v>169.8300519465496</v>
       </c>
       <c r="K28" t="n">
-        <v>416.1723924045069</v>
+        <v>416.172392404507</v>
       </c>
       <c r="L28" t="n">
-        <v>775.0982850241421</v>
+        <v>775.0982850241422</v>
       </c>
       <c r="M28" t="n">
         <v>1161.624145190065</v>
@@ -6406,13 +6406,13 @@
         <v>2282.01210223345</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.37232449546</v>
+        <v>2235.372324495459</v>
       </c>
       <c r="S28" t="n">
         <v>2086.867662701784</v>
       </c>
       <c r="T28" t="n">
-        <v>1908.277751836398</v>
+        <v>1908.277751836397</v>
       </c>
       <c r="U28" t="n">
         <v>1662.350140829211</v>
@@ -6421,13 +6421,13 @@
         <v>1450.840889757331</v>
       </c>
       <c r="W28" t="n">
-        <v>1204.598956854378</v>
+        <v>1204.598956854377</v>
       </c>
       <c r="X28" t="n">
-        <v>1019.784643090367</v>
+        <v>1019.784643090366</v>
       </c>
       <c r="Y28" t="n">
-        <v>842.1673010808436</v>
+        <v>842.1673010808431</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2059.965965368571</v>
+        <v>2059.965965368573</v>
       </c>
       <c r="C29" t="n">
-        <v>1734.178685562166</v>
+        <v>1734.178685562168</v>
       </c>
       <c r="D29" t="n">
-        <v>1419.088224089423</v>
+        <v>1419.088224089425</v>
       </c>
       <c r="E29" t="n">
-        <v>1076.475208625186</v>
+        <v>1076.475208625187</v>
       </c>
       <c r="F29" t="n">
-        <v>708.6645409695852</v>
+        <v>708.6645409695869</v>
       </c>
       <c r="G29" t="n">
         <v>336.7680935920906</v>
       </c>
       <c r="H29" t="n">
-        <v>82.3675714813771</v>
+        <v>82.36757148137713</v>
       </c>
       <c r="I29" t="n">
-        <v>82.3675714813771</v>
+        <v>82.36757148137713</v>
       </c>
       <c r="J29" t="n">
         <v>271.31039231316</v>
@@ -6470,43 +6470,43 @@
         <v>1056.377853744376</v>
       </c>
       <c r="M29" t="n">
-        <v>1933.07962129681</v>
+        <v>1590.041523353867</v>
       </c>
       <c r="N29" t="n">
-        <v>2912.96579055547</v>
+        <v>2569.927692612527</v>
       </c>
       <c r="O29" t="n">
-        <v>3416.064696605263</v>
+        <v>3416.064696605265</v>
       </c>
       <c r="P29" t="n">
-        <v>3810.946972455245</v>
+        <v>3810.946972455247</v>
       </c>
       <c r="Q29" t="n">
-        <v>4059.314369746022</v>
+        <v>4059.314369746024</v>
       </c>
       <c r="R29" t="n">
-        <v>4118.378574068855</v>
+        <v>4118.378574068856</v>
       </c>
       <c r="S29" t="n">
-        <v>4051.280589831253</v>
+        <v>4051.280589831254</v>
       </c>
       <c r="T29" t="n">
-        <v>3888.481430953911</v>
+        <v>3888.481430953912</v>
       </c>
       <c r="U29" t="n">
-        <v>3678.126252613234</v>
+        <v>3678.126252613236</v>
       </c>
       <c r="V29" t="n">
-        <v>3390.23860240367</v>
+        <v>3390.238602403672</v>
       </c>
       <c r="W29" t="n">
-        <v>3080.645184267563</v>
+        <v>3080.645184267565</v>
       </c>
       <c r="X29" t="n">
-        <v>2750.354663140491</v>
+        <v>2750.354663140492</v>
       </c>
       <c r="Y29" t="n">
-        <v>2403.390568298686</v>
+        <v>2403.390568298688</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>101.3607587166756</v>
       </c>
       <c r="I30" t="n">
-        <v>82.3675714813771</v>
+        <v>82.36757148137713</v>
       </c>
       <c r="J30" t="n">
         <v>175.4100324631154</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>703.6940733846118</v>
+        <v>703.6940733846104</v>
       </c>
       <c r="C31" t="n">
-        <v>577.9331275907118</v>
+        <v>577.9331275907105</v>
       </c>
       <c r="D31" t="n">
-        <v>572.526402316832</v>
+        <v>470.9917253123817</v>
       </c>
       <c r="E31" t="n">
-        <v>467.7885458684458</v>
+        <v>366.2538688639956</v>
       </c>
       <c r="F31" t="n">
-        <v>364.0738355045424</v>
+        <v>262.5391585000922</v>
       </c>
       <c r="G31" t="n">
-        <v>239.546579454585</v>
+        <v>185.4064676239878</v>
       </c>
       <c r="H31" t="n">
-        <v>136.5076833119744</v>
+        <v>82.36757148137713</v>
       </c>
       <c r="I31" t="n">
-        <v>82.3675714813771</v>
+        <v>82.36757148137713</v>
       </c>
       <c r="J31" t="n">
         <v>169.8300519465497</v>
       </c>
       <c r="K31" t="n">
-        <v>416.172392404507</v>
+        <v>416.1723924045069</v>
       </c>
       <c r="L31" t="n">
-        <v>775.0982850241422</v>
+        <v>775.0982850241421</v>
       </c>
       <c r="M31" t="n">
         <v>1161.624145190065</v>
@@ -6661,10 +6661,10 @@
         <v>1204.598956854377</v>
       </c>
       <c r="X31" t="n">
-        <v>1019.784643090368</v>
+        <v>1019.784643090366</v>
       </c>
       <c r="Y31" t="n">
-        <v>842.1673010808445</v>
+        <v>842.1673010808431</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.195975697828</v>
+        <v>2033.195975697829</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.667557884496</v>
+        <v>1711.667557884497</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.835958404825</v>
+        <v>1400.835958404826</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.48180493366</v>
+        <v>1062.481804933662</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9299992711327</v>
+        <v>698.9299992711342</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2924138867113</v>
+        <v>331.2924138867114</v>
       </c>
       <c r="H32" t="n">
-        <v>81.15075376907058</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="I32" t="n">
-        <v>81.15075376907058</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0935746008535</v>
+        <v>270.0935746008536</v>
       </c>
       <c r="K32" t="n">
-        <v>604.008402900067</v>
+        <v>924.9123613455201</v>
       </c>
       <c r="L32" t="n">
-        <v>1055.16103603207</v>
+        <v>1376.064994477523</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.824705641561</v>
+        <v>1909.728664087014</v>
       </c>
       <c r="N32" t="n">
-        <v>2568.71087490022</v>
+        <v>2456.641378177809</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.223810989938</v>
+        <v>3336.732463677721</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.106086839919</v>
+        <v>3731.614739527703</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.473484130696</v>
+        <v>3979.98213681848</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.537688453529</v>
+        <v>4057.537688453531</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.698566209</v>
+        <v>3994.698566209002</v>
       </c>
       <c r="T32" t="n">
-        <v>3836.158269324731</v>
+        <v>3836.158269324733</v>
       </c>
       <c r="U32" t="n">
-        <v>3630.061952977127</v>
+        <v>3630.061952977129</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.433164760636</v>
+        <v>3346.433164760638</v>
       </c>
       <c r="W32" t="n">
-        <v>3041.098608617601</v>
+        <v>3041.098608617604</v>
       </c>
       <c r="X32" t="n">
-        <v>2715.066949483601</v>
+        <v>2715.066949483603</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.361716634869</v>
+        <v>2372.361716634871</v>
       </c>
     </row>
     <row r="33">
@@ -6762,25 +6762,25 @@
         <v>632.7765824484429</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5391274429874</v>
+        <v>473.5391274429875</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0045694698723</v>
+        <v>327.0045694698724</v>
       </c>
       <c r="G33" t="n">
         <v>190.6418789578792</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1439410043691</v>
+        <v>100.1439410043692</v>
       </c>
       <c r="I33" t="n">
-        <v>81.15075376907058</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="J33" t="n">
-        <v>174.1932147508091</v>
+        <v>174.865956511583</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5222477005644</v>
+        <v>413.1949894613383</v>
       </c>
       <c r="L33" t="n">
         <v>779.3075852861077</v>
@@ -6832,67 +6832,67 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1998987252448</v>
+        <v>774.1998987252449</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6978149244176</v>
+        <v>652.6978149244177</v>
       </c>
       <c r="D34" t="n">
-        <v>550.0152746391616</v>
+        <v>550.0152746391617</v>
       </c>
       <c r="E34" t="n">
-        <v>449.5362801838482</v>
+        <v>449.5362801838484</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0804318130176</v>
+        <v>350.0804318130178</v>
       </c>
       <c r="G34" t="n">
-        <v>229.812037756133</v>
+        <v>229.8120377561331</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0320036065951</v>
+        <v>131.0320036065952</v>
       </c>
       <c r="I34" t="n">
-        <v>81.15075376907058</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7873448736538</v>
+        <v>172.7873448736532</v>
       </c>
       <c r="K34" t="n">
-        <v>423.3037959710224</v>
+        <v>423.3037959710211</v>
       </c>
       <c r="L34" t="n">
-        <v>786.4037992300682</v>
+        <v>786.403799230067</v>
       </c>
       <c r="M34" t="n">
-        <v>1177.103770035402</v>
+        <v>1177.1037700354</v>
       </c>
       <c r="N34" t="n">
-        <v>1565.053817321577</v>
+        <v>1565.053817321576</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.921154642462</v>
+        <v>1910.921154642461</v>
       </c>
       <c r="P34" t="n">
-        <v>2190.05952669717</v>
+        <v>2190.059526697169</v>
       </c>
       <c r="Q34" t="n">
-        <v>2314.188169636429</v>
+        <v>2314.188169636428</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.807253891512</v>
+        <v>2271.807253891511</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.561454090909</v>
+        <v>2127.561454090908</v>
       </c>
       <c r="T34" t="n">
         <v>1953.230405218595</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.561656204481</v>
+        <v>1711.56165620448</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.311267125674</v>
+        <v>1504.311267125673</v>
       </c>
       <c r="W34" t="n">
         <v>1262.328196215793</v>
@@ -6901,7 +6901,7 @@
         <v>1081.772744444855</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.4142644284047</v>
+        <v>908.4142644284049</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.195975697827</v>
+        <v>2033.195975697829</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.667557884495</v>
+        <v>1711.667557884497</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.835958404825</v>
+        <v>1400.835958404827</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.48180493366</v>
+        <v>1062.481804933662</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9299992711327</v>
+        <v>698.9299992711342</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2924138867113</v>
+        <v>331.2924138867114</v>
       </c>
       <c r="H35" t="n">
-        <v>81.15075376907058</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="I35" t="n">
-        <v>81.15075376907058</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4992236212065</v>
+        <v>270.0935746008536</v>
       </c>
       <c r="K35" t="n">
-        <v>771.41405192042</v>
+        <v>604.008402900067</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.566685052423</v>
+        <v>1055.16103603207</v>
       </c>
       <c r="M35" t="n">
-        <v>1756.230354661914</v>
+        <v>2033.843103799465</v>
       </c>
       <c r="N35" t="n">
-        <v>2303.143068752709</v>
+        <v>2580.75581789026</v>
       </c>
       <c r="O35" t="n">
-        <v>2806.241974802503</v>
+        <v>3083.854723940054</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.854990412361</v>
+        <v>3478.736999790035</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.414228456444</v>
+        <v>3933.414228456446</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.537688453529</v>
+        <v>4057.537688453531</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.698566209</v>
+        <v>3994.698566209002</v>
       </c>
       <c r="T35" t="n">
-        <v>3836.158269324731</v>
+        <v>3836.158269324733</v>
       </c>
       <c r="U35" t="n">
-        <v>3630.061952977127</v>
+        <v>3630.061952977129</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.433164760635</v>
+        <v>3346.433164760638</v>
       </c>
       <c r="W35" t="n">
-        <v>3041.098608617601</v>
+        <v>3041.098608617604</v>
       </c>
       <c r="X35" t="n">
-        <v>2715.066949483602</v>
+        <v>2715.066949483603</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.361716634869</v>
+        <v>2372.361716634871</v>
       </c>
     </row>
     <row r="36">
@@ -6999,31 +6999,31 @@
         <v>632.7765824484429</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5391274429874</v>
+        <v>473.5391274429875</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0045694698723</v>
+        <v>327.0045694698724</v>
       </c>
       <c r="G36" t="n">
         <v>190.6418789578792</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1439410043691</v>
+        <v>100.1439410043692</v>
       </c>
       <c r="I36" t="n">
-        <v>81.15075376907058</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="J36" t="n">
         <v>174.865956511583</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5222477005644</v>
+        <v>413.1949894613383</v>
       </c>
       <c r="L36" t="n">
-        <v>779.3075852861077</v>
+        <v>779.9803270468817</v>
       </c>
       <c r="M36" t="n">
-        <v>1226.685642273986</v>
+        <v>1227.35838403476</v>
       </c>
       <c r="N36" t="n">
         <v>1700.313110131125</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1998987252446</v>
+        <v>774.199898725245</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6978149244175</v>
+        <v>652.6978149244178</v>
       </c>
       <c r="D37" t="n">
-        <v>550.0152746391615</v>
+        <v>550.0152746391618</v>
       </c>
       <c r="E37" t="n">
-        <v>449.5362801838481</v>
+        <v>449.5362801838484</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0804318130175</v>
+        <v>350.0804318130178</v>
       </c>
       <c r="G37" t="n">
-        <v>229.8120377561329</v>
+        <v>229.8120377561331</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0320036065951</v>
+        <v>131.0320036065952</v>
       </c>
       <c r="I37" t="n">
-        <v>81.15075376907058</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="J37" t="n">
         <v>172.7873448736538</v>
       </c>
       <c r="K37" t="n">
-        <v>423.3037959710222</v>
+        <v>423.3037959710218</v>
       </c>
       <c r="L37" t="n">
-        <v>786.403799230068</v>
+        <v>786.4037992300678</v>
       </c>
       <c r="M37" t="n">
         <v>1177.103770035401</v>
@@ -7120,7 +7120,7 @@
         <v>2271.807253891511</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.561454090909</v>
+        <v>2127.561454090908</v>
       </c>
       <c r="T37" t="n">
         <v>1953.230405218595</v>
@@ -7138,7 +7138,7 @@
         <v>1081.772744444855</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.4142644284045</v>
+        <v>908.414264428405</v>
       </c>
     </row>
     <row r="38">
@@ -7154,64 +7154,64 @@
         <v>1711.667557884496</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.835958404825</v>
+        <v>1400.835958404826</v>
       </c>
       <c r="E38" t="n">
         <v>1062.481804933661</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9299992711329</v>
+        <v>698.9299992711335</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2924138867113</v>
+        <v>331.2924138867114</v>
       </c>
       <c r="H38" t="n">
-        <v>81.15075376907058</v>
+        <v>81.1507537690706</v>
       </c>
       <c r="I38" t="n">
-        <v>81.15075376907058</v>
+        <v>81.1507537690706</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4992236212065</v>
+        <v>270.0935746008536</v>
       </c>
       <c r="K38" t="n">
-        <v>1092.318010365873</v>
+        <v>604.008402900067</v>
       </c>
       <c r="L38" t="n">
-        <v>1706.489265565604</v>
+        <v>1055.16103603207</v>
       </c>
       <c r="M38" t="n">
-        <v>2240.152935175096</v>
+        <v>1588.824705641561</v>
       </c>
       <c r="N38" t="n">
-        <v>2787.065649265891</v>
+        <v>2475.132725490027</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.164555315685</v>
+        <v>3355.223810989939</v>
       </c>
       <c r="P38" t="n">
-        <v>3685.046831165667</v>
+        <v>3750.106086839921</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.414228456444</v>
+        <v>3998.473484130698</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.537688453529</v>
+        <v>4057.53768845353</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.698566209</v>
+        <v>3994.698566209001</v>
       </c>
       <c r="T38" t="n">
-        <v>3836.158269324731</v>
+        <v>3836.158269324732</v>
       </c>
       <c r="U38" t="n">
-        <v>3630.061952977127</v>
+        <v>3630.061952977128</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.433164760636</v>
+        <v>3346.433164760637</v>
       </c>
       <c r="W38" t="n">
-        <v>3041.098608617602</v>
+        <v>3041.098608617603</v>
       </c>
       <c r="X38" t="n">
         <v>2715.066949483602</v>
@@ -7248,16 +7248,16 @@
         <v>100.1439410043691</v>
       </c>
       <c r="I39" t="n">
-        <v>81.15075376907058</v>
+        <v>81.1507537690706</v>
       </c>
       <c r="J39" t="n">
-        <v>174.1932147508091</v>
+        <v>174.865956511583</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5222477005644</v>
+        <v>413.1949894613383</v>
       </c>
       <c r="L39" t="n">
-        <v>779.3075852861077</v>
+        <v>779.9803270468816</v>
       </c>
       <c r="M39" t="n">
         <v>1226.685642273986</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1998987252448</v>
+        <v>774.199898725245</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6978149244176</v>
+        <v>652.6978149244178</v>
       </c>
       <c r="D40" t="n">
-        <v>550.0152746391616</v>
+        <v>550.0152746391618</v>
       </c>
       <c r="E40" t="n">
-        <v>449.5362801838482</v>
+        <v>449.5362801838485</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0804318130176</v>
+        <v>350.0804318130178</v>
       </c>
       <c r="G40" t="n">
-        <v>229.812037756133</v>
+        <v>229.8120377561331</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0320036065951</v>
+        <v>131.0320036065952</v>
       </c>
       <c r="I40" t="n">
-        <v>81.15075376907058</v>
+        <v>81.1507537690706</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7873448736538</v>
+        <v>172.7873448736547</v>
       </c>
       <c r="K40" t="n">
-        <v>423.3037959710218</v>
+        <v>423.3037959710227</v>
       </c>
       <c r="L40" t="n">
-        <v>786.4037992300675</v>
+        <v>786.4037992300684</v>
       </c>
       <c r="M40" t="n">
-        <v>1177.103770035401</v>
+        <v>1177.103770035402</v>
       </c>
       <c r="N40" t="n">
-        <v>1565.053817321576</v>
+        <v>1565.053817321577</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.921154642461</v>
+        <v>1910.921154642462</v>
       </c>
       <c r="P40" t="n">
-        <v>2190.059526697169</v>
+        <v>2190.05952669717</v>
       </c>
       <c r="Q40" t="n">
-        <v>2314.188169636428</v>
+        <v>2314.188169636429</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.807253891511</v>
+        <v>2271.807253891512</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.561454090908</v>
+        <v>2127.561454090909</v>
       </c>
       <c r="T40" t="n">
         <v>1953.230405218595</v>
@@ -7375,7 +7375,7 @@
         <v>1081.772744444855</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.4142644284047</v>
+        <v>908.414264428405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.195975697829</v>
+        <v>2033.195975697828</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.667557884497</v>
+        <v>1711.667557884496</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.835958404826</v>
+        <v>1400.835958404825</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.481804933662</v>
+        <v>1062.48180493366</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9299992711342</v>
+        <v>698.9299992711326</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2924138867113</v>
+        <v>331.2924138867114</v>
       </c>
       <c r="H41" t="n">
         <v>81.1507537690706</v>
@@ -7415,22 +7415,22 @@
         <v>771.4140519204201</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.566685052423</v>
+        <v>1636.051287457369</v>
       </c>
       <c r="M41" t="n">
-        <v>1756.230354661914</v>
+        <v>2169.71495706686</v>
       </c>
       <c r="N41" t="n">
-        <v>2303.143068752709</v>
+        <v>2716.627671157656</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.241974802503</v>
+        <v>3219.726577207449</v>
       </c>
       <c r="P41" t="n">
-        <v>3519.704971742252</v>
+        <v>3614.608853057431</v>
       </c>
       <c r="Q41" t="n">
-        <v>3978.264209786335</v>
+        <v>3933.414228456445</v>
       </c>
       <c r="R41" t="n">
         <v>4057.53768845353</v>
@@ -7442,19 +7442,19 @@
         <v>3836.158269324731</v>
       </c>
       <c r="U41" t="n">
-        <v>3630.061952977128</v>
+        <v>3630.061952977127</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.433164760638</v>
+        <v>3346.433164760636</v>
       </c>
       <c r="W41" t="n">
-        <v>3041.098608617604</v>
+        <v>3041.098608617602</v>
       </c>
       <c r="X41" t="n">
-        <v>2715.066949483603</v>
+        <v>2715.066949483602</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.361716634871</v>
+        <v>2372.361716634869</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>174.865956511583</v>
       </c>
       <c r="K42" t="n">
-        <v>413.1949894613383</v>
+        <v>412.5222477005644</v>
       </c>
       <c r="L42" t="n">
-        <v>779.9803270468816</v>
+        <v>779.3075852861077</v>
       </c>
       <c r="M42" t="n">
-        <v>1227.35838403476</v>
+        <v>1226.685642273986</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.985851891899</v>
+        <v>1700.313110131125</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.042659145966</v>
+        <v>2111.369917385192</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.618920132352</v>
+        <v>2421.946178371578</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.638987555393</v>
@@ -7546,31 +7546,31 @@
         <v>774.199898725245</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6978149244179</v>
+        <v>652.6978149244178</v>
       </c>
       <c r="D43" t="n">
-        <v>550.0152746391619</v>
+        <v>550.0152746391618</v>
       </c>
       <c r="E43" t="n">
-        <v>449.5362801838486</v>
+        <v>449.5362801838484</v>
       </c>
       <c r="F43" t="n">
-        <v>350.080431813018</v>
+        <v>350.0804318130178</v>
       </c>
       <c r="G43" t="n">
-        <v>229.8120377561333</v>
+        <v>229.8120377561331</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0320036065951</v>
+        <v>131.0320036065952</v>
       </c>
       <c r="I43" t="n">
         <v>81.1507537690706</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7873448736537</v>
+        <v>172.7873448736538</v>
       </c>
       <c r="K43" t="n">
-        <v>423.3037959710217</v>
+        <v>423.3037959710218</v>
       </c>
       <c r="L43" t="n">
         <v>786.4037992300675</v>
@@ -7582,10 +7582,10 @@
         <v>1565.053817321576</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.921154642462</v>
+        <v>1910.921154642461</v>
       </c>
       <c r="P43" t="n">
-        <v>2190.05952669717</v>
+        <v>2190.059526697169</v>
       </c>
       <c r="Q43" t="n">
         <v>2314.188169636428</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.19597569783</v>
+        <v>2033.195975697828</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.667557884498</v>
+        <v>1711.667557884496</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.835958404827</v>
+        <v>1400.835958404826</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.481804933662</v>
+        <v>1062.481804933661</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9299992711349</v>
+        <v>698.9299992711333</v>
       </c>
       <c r="G44" t="n">
         <v>331.2924138867114</v>
       </c>
       <c r="H44" t="n">
-        <v>81.15075376907063</v>
+        <v>81.1507537690706</v>
       </c>
       <c r="I44" t="n">
-        <v>81.15075376907063</v>
+        <v>81.1507537690706</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4992236212065</v>
+        <v>270.0935746008536</v>
       </c>
       <c r="K44" t="n">
-        <v>771.41405192042</v>
+        <v>604.008402900067</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.566685052423</v>
+        <v>1242.775959396785</v>
       </c>
       <c r="M44" t="n">
-        <v>1756.230354661914</v>
+        <v>1776.439629006277</v>
       </c>
       <c r="N44" t="n">
-        <v>2303.143068752709</v>
+        <v>2323.352343097072</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.241974802503</v>
+        <v>2826.451249146865</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.854990412363</v>
+        <v>3539.914246086615</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.414228456446</v>
+        <v>3998.473484130698</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.537688453531</v>
+        <v>4057.53768845353</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.698566209002</v>
+        <v>3994.698566209001</v>
       </c>
       <c r="T44" t="n">
-        <v>3836.158269324733</v>
+        <v>3836.158269324732</v>
       </c>
       <c r="U44" t="n">
-        <v>3630.061952977129</v>
+        <v>3630.061952977128</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.433164760639</v>
+        <v>3346.433164760637</v>
       </c>
       <c r="W44" t="n">
-        <v>3041.098608617604</v>
+        <v>3041.098608617603</v>
       </c>
       <c r="X44" t="n">
-        <v>2715.066949483604</v>
+        <v>2715.066949483602</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.361716634872</v>
+        <v>2372.36171663487</v>
       </c>
     </row>
     <row r="45">
@@ -7710,37 +7710,37 @@
         <v>632.7765824484429</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5391274429875</v>
+        <v>473.5391274429874</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0045694698724</v>
+        <v>327.0045694698723</v>
       </c>
       <c r="G45" t="n">
         <v>190.6418789578792</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1439410043692</v>
+        <v>100.1439410043691</v>
       </c>
       <c r="I45" t="n">
-        <v>81.15075376907063</v>
+        <v>81.1507537690706</v>
       </c>
       <c r="J45" t="n">
         <v>174.865956511583</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5222477005654</v>
+        <v>412.5222477005644</v>
       </c>
       <c r="L45" t="n">
-        <v>779.3075852861086</v>
+        <v>779.3075852861077</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.685642273987</v>
+        <v>1226.685642273986</v>
       </c>
       <c r="N45" t="n">
         <v>1700.313110131125</v>
       </c>
       <c r="O45" t="n">
-        <v>2111.369917385193</v>
+        <v>2111.369917385192</v>
       </c>
       <c r="P45" t="n">
         <v>2421.946178371578</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1998987252449</v>
+        <v>774.199898725245</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6978149244177</v>
+        <v>652.6978149244178</v>
       </c>
       <c r="D46" t="n">
-        <v>550.0152746391617</v>
+        <v>550.0152746391618</v>
       </c>
       <c r="E46" t="n">
-        <v>449.5362801838484</v>
+        <v>449.5362801838485</v>
       </c>
       <c r="F46" t="n">
         <v>350.0804318130178</v>
@@ -7801,34 +7801,34 @@
         <v>131.0320036065952</v>
       </c>
       <c r="I46" t="n">
-        <v>81.15075376907063</v>
+        <v>81.1507537690706</v>
       </c>
       <c r="J46" t="n">
         <v>172.7873448736538</v>
       </c>
       <c r="K46" t="n">
-        <v>423.3037959710217</v>
+        <v>423.3037959710218</v>
       </c>
       <c r="L46" t="n">
-        <v>786.4037992300673</v>
+        <v>786.4037992300675</v>
       </c>
       <c r="M46" t="n">
         <v>1177.103770035401</v>
       </c>
       <c r="N46" t="n">
-        <v>1565.053817321576</v>
+        <v>1565.053817321577</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.921154642461</v>
+        <v>1910.921154642462</v>
       </c>
       <c r="P46" t="n">
-        <v>2190.059526697169</v>
+        <v>2190.05952669717</v>
       </c>
       <c r="Q46" t="n">
-        <v>2314.188169636428</v>
+        <v>2314.188169636429</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.807253891511</v>
+        <v>2271.807253891512</v>
       </c>
       <c r="S46" t="n">
         <v>2127.561454090909</v>
@@ -7849,7 +7849,7 @@
         <v>1081.772744444855</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.4142644284049</v>
+        <v>908.414264428405</v>
       </c>
     </row>
   </sheetData>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>208.3214547517356</v>
+        <v>223.531676155567</v>
       </c>
       <c r="L8" t="n">
         <v>221.1666787354324</v>
       </c>
       <c r="M8" t="n">
-        <v>228.6968806019977</v>
+        <v>229.3114350021526</v>
       </c>
       <c r="N8" t="n">
-        <v>228.1154039702292</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O8" t="n">
-        <v>229.7205088771009</v>
+        <v>229.1059544769461</v>
       </c>
       <c r="P8" t="n">
         <v>233.1392847084932</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0584178274402</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
         <v>143.0167001468234</v>
       </c>
       <c r="M9" t="n">
-        <v>144.1874073613947</v>
+        <v>144.8019617615495</v>
       </c>
       <c r="N9" t="n">
         <v>133.6776827329768</v>
@@ -8550,7 +8550,7 @@
         <v>124.5219861368073</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>144.3286289614989</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,13 +8614,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>143.9250475135983</v>
+        <v>141.0127528114181</v>
       </c>
       <c r="M10" t="n">
         <v>147.6307634224478</v>
       </c>
       <c r="N10" t="n">
-        <v>133.6329093510364</v>
+        <v>136.5452040532166</v>
       </c>
       <c r="O10" t="n">
         <v>147.8009881505234</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.790567694115452e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.790567694115452e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>39.29715389422188</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>230.3816946888724</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>81.25116421305307</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>184.0199349429093</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>346.5031292352957</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>346.5031292352975</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>286.2767980201246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.67812859820071</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>276.4956967271478</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>208.3937690662965</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>164.6652748158876</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>342.8235411693644</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>71.149472836603</v>
       </c>
       <c r="R41" t="n">
-        <v>20.41340842864915</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>189.5100236007228</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>276.4956967271503</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>320.4259338594447</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>168.6238358949989</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7530437407104</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>304.3940108058503</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>324.8841427669063</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>109.5246599223995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>50.37084758620543</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>50.37084758620938</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>337.8868837519179</v>
+        <v>337.8868837519177</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>337.0834121606989</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>63.83251758253833</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>159.0676941396728</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.8482356035653</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.37084758620668</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.37084758621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,19 +23729,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>335.7740835276716</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.3131336351986</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>55.13639319283942</v>
       </c>
       <c r="F17" t="n">
-        <v>182.416914628921</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0353531841277</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7713425426601</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>318.3131336351987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>345.2624008251317</v>
       </c>
       <c r="G20" t="n">
-        <v>5.928403155766353</v>
+        <v>363.9612095305778</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21073102208362</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7713425426601</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>100.5193302344053</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>46.92061952211459</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>53.59871071229135</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>100.5193302344044</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>46.92061952211455</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>53.59871071229135</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>883717.0059133726</v>
+        <v>883717.005913373</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>883717.0059133726</v>
+        <v>883717.005913373</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>887814.9215621371</v>
+        <v>887814.921562137</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>887814.9215621371</v>
+        <v>887814.921562137</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>972897.4077610571</v>
+        <v>972897.4077610573</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>971800.9798342421</v>
+        <v>971800.9798342423</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>972897.4077610571</v>
+        <v>972897.4077610573</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>972897.4077610571</v>
+        <v>972897.4077610573</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>972897.4077610573</v>
+        <v>972897.4077610571</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>491565.8032302231</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>456614.4993407998</v>
+        <v>456614.4993407999</v>
       </c>
       <c r="F2" t="n">
-        <v>456614.4993408</v>
+        <v>456614.4993408002</v>
       </c>
       <c r="G2" t="n">
-        <v>458752.5422879817</v>
+        <v>458752.5422879819</v>
       </c>
       <c r="H2" t="n">
-        <v>458752.5422879818</v>
+        <v>458752.5422879815</v>
       </c>
       <c r="I2" t="n">
+        <v>492625.0619185704</v>
+      </c>
+      <c r="J2" t="n">
+        <v>491177.5835631947</v>
+      </c>
+      <c r="K2" t="n">
+        <v>491177.5835631947</v>
+      </c>
+      <c r="L2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="J2" t="n">
-        <v>491177.5835631948</v>
-      </c>
-      <c r="K2" t="n">
-        <v>491177.5835631946</v>
-      </c>
-      <c r="L2" t="n">
-        <v>492625.0619185702</v>
       </c>
       <c r="M2" t="n">
         <v>492625.0619185702</v>
       </c>
       <c r="N2" t="n">
+        <v>492625.0619185705</v>
+      </c>
+      <c r="O2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="P2" t="n">
         <v>492625.0619185704</v>
-      </c>
-      <c r="O2" t="n">
-        <v>492625.0619185703</v>
-      </c>
-      <c r="P2" t="n">
-        <v>492625.06191857</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1690.240179396983</v>
+        <v>1690.240179396869</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48597.57052396426</v>
+        <v>48597.57052396439</v>
       </c>
       <c r="J3" t="n">
-        <v>36484.21079972052</v>
+        <v>36484.21079972068</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5063.258877910602</v>
+        <v>5063.258877910516</v>
       </c>
       <c r="M3" t="n">
-        <v>203455.7006606328</v>
+        <v>203455.7006606327</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32504.54763073655</v>
+        <v>32504.54763073663</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>420147.7688895313</v>
       </c>
       <c r="D4" t="n">
-        <v>413700.5059104598</v>
+        <v>413700.5059104599</v>
       </c>
       <c r="E4" t="n">
-        <v>54330.58359326537</v>
+        <v>54330.58359326555</v>
       </c>
       <c r="F4" t="n">
-        <v>54330.58359326542</v>
+        <v>54330.58359326557</v>
       </c>
       <c r="G4" t="n">
-        <v>56369.67384732938</v>
+        <v>56369.67384732939</v>
       </c>
       <c r="H4" t="n">
-        <v>56369.67384732938</v>
+        <v>56369.67384732936</v>
       </c>
       <c r="I4" t="n">
+        <v>76616.23142674637</v>
+      </c>
+      <c r="J4" t="n">
+        <v>74232.14920876399</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74232.14920876402</v>
+      </c>
+      <c r="L4" t="n">
+        <v>76616.23142674635</v>
+      </c>
+      <c r="M4" t="n">
         <v>76616.23142674632</v>
-      </c>
-      <c r="J4" t="n">
-        <v>74232.14920876396</v>
-      </c>
-      <c r="K4" t="n">
-        <v>74232.14920876398</v>
-      </c>
-      <c r="L4" t="n">
-        <v>76616.23142674629</v>
-      </c>
-      <c r="M4" t="n">
-        <v>76616.23142674631</v>
       </c>
       <c r="N4" t="n">
         <v>76616.23142674629</v>
       </c>
       <c r="O4" t="n">
-        <v>76616.23142674635</v>
+        <v>76616.23142674628</v>
       </c>
       <c r="P4" t="n">
-        <v>76616.23142674635</v>
+        <v>76616.23142674631</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>78094.7381193605</v>
       </c>
       <c r="G5" t="n">
-        <v>78272.35912141266</v>
+        <v>78272.35912141265</v>
       </c>
       <c r="H5" t="n">
-        <v>78272.35912141266</v>
+        <v>78272.35912141265</v>
       </c>
       <c r="I5" t="n">
+        <v>89383.67521851305</v>
+      </c>
+      <c r="J5" t="n">
+        <v>89953.99879365931</v>
+      </c>
+      <c r="K5" t="n">
+        <v>89953.99879365931</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89383.67521851305</v>
+      </c>
+      <c r="M5" t="n">
+        <v>89383.67521851305</v>
+      </c>
+      <c r="N5" t="n">
         <v>89383.67521851303</v>
-      </c>
-      <c r="J5" t="n">
-        <v>89953.99879365928</v>
-      </c>
-      <c r="K5" t="n">
-        <v>89953.99879365928</v>
-      </c>
-      <c r="L5" t="n">
-        <v>89383.67521851302</v>
-      </c>
-      <c r="M5" t="n">
-        <v>89383.67521851302</v>
-      </c>
-      <c r="N5" t="n">
-        <v>89383.67521851302</v>
       </c>
       <c r="O5" t="n">
         <v>89383.67521851303</v>
       </c>
       <c r="P5" t="n">
-        <v>89383.67521851305</v>
+        <v>89383.67521851303</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37790.4343406917</v>
+        <v>37786.02076282358</v>
       </c>
       <c r="C6" t="n">
-        <v>37790.43434069187</v>
+        <v>37786.0207628237</v>
       </c>
       <c r="D6" t="n">
-        <v>19436.74860918938</v>
+        <v>19436.74860918909</v>
       </c>
       <c r="E6" t="n">
-        <v>-812646.4545238287</v>
+        <v>-812796.4985345694</v>
       </c>
       <c r="F6" t="n">
-        <v>324189.1776281741</v>
+        <v>324039.1336174334</v>
       </c>
       <c r="G6" t="n">
-        <v>322420.2691398427</v>
+        <v>322279.1336413822</v>
       </c>
       <c r="H6" t="n">
-        <v>324110.5093192398</v>
+        <v>323969.3738207787</v>
       </c>
       <c r="I6" t="n">
-        <v>278027.5847493466</v>
+        <v>278027.5847493465</v>
       </c>
       <c r="J6" t="n">
-        <v>290507.224761051</v>
+        <v>290501.1936012367</v>
       </c>
       <c r="K6" t="n">
-        <v>326991.4355607714</v>
+        <v>326985.4044009573</v>
       </c>
       <c r="L6" t="n">
-        <v>321561.8963954003</v>
+        <v>321561.8963954002</v>
       </c>
       <c r="M6" t="n">
         <v>123169.4546126781</v>
       </c>
       <c r="N6" t="n">
+        <v>326625.1552733112</v>
+      </c>
+      <c r="O6" t="n">
+        <v>294120.6076425741</v>
+      </c>
+      <c r="P6" t="n">
         <v>326625.1552733111</v>
-      </c>
-      <c r="O6" t="n">
-        <v>294120.6076425744</v>
-      </c>
-      <c r="P6" t="n">
-        <v>326625.1552733105</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="F2" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="G2" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H2" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I2" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="J2" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="K2" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="L2" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="M2" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="N2" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="O2" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="P2" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
     </row>
     <row r="3">
@@ -26799,13 +26799,13 @@
         <v>831.6325126215999</v>
       </c>
       <c r="F4" t="n">
-        <v>831.6325126216002</v>
+        <v>831.6325126215999</v>
       </c>
       <c r="G4" t="n">
-        <v>831.6325126216002</v>
+        <v>831.6325126215999</v>
       </c>
       <c r="H4" t="n">
-        <v>831.6325126216002</v>
+        <v>831.6325126215999</v>
       </c>
       <c r="I4" t="n">
         <v>1014.384422113383</v>
@@ -26817,13 +26817,13 @@
         <v>1029.594643517214</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.384422113382</v>
+        <v>1014.384422113383</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.384422113382</v>
+        <v>1014.384422113383</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.384422113382</v>
+        <v>1014.384422113383</v>
       </c>
       <c r="O4" t="n">
         <v>1014.384422113383</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.112800224246229</v>
+        <v>2.112800224246087</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.63068453842068</v>
+        <v>40.63068453842078</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.329073597388252</v>
+        <v>6.329073597388145</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.63068453842069</v>
+        <v>40.63068453842078</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.7519094917824</v>
+        <v>182.7519094917828</v>
       </c>
       <c r="J4" t="n">
-        <v>15.21022140383104</v>
+        <v>15.21022140383138</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.112800224246229</v>
+        <v>2.112800224246087</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.63068453842068</v>
+        <v>40.63068453842078</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>339.4728202168516</v>
       </c>
       <c r="E8" t="n">
-        <v>372.6303071126193</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.6658243378801</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27874,7 +27874,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>128.8473813606388</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>216.1697430161163</v>
       </c>
       <c r="U8" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>312.5420370663035</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.8589909895525</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>122.0837952758643</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>96.54715237345462</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>74.29517687579497</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>81.87424062320621</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>157.3665583207908</v>
       </c>
       <c r="T9" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>210.7279040663859</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>190.472474373473</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28035,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>2.237778114884799</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>67.47680106215783</v>
       </c>
       <c r="R10" t="n">
-        <v>162.0302580242017</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>214.371110188528</v>
       </c>
       <c r="U10" t="n">
-        <v>271.1065443412477</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>236.9274219199966</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>271.3127769327596</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="C11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="D11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="E11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="F11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="G11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="H11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="I11" t="n">
         <v>41.54770747653555</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="T11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="U11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="V11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="W11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="X11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="C13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="D13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="E13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="F13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="G13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="H13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="I13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="J13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="K13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="L13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="M13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="N13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="O13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="P13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="R13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="S13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="T13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="U13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="V13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="W13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="X13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="C14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="D14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="E14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="F14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="G14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="H14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="I14" t="n">
         <v>41.54770747653555</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="T14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="U14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="V14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="W14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="X14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="C16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="D16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="E16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="F16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="G16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="H16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="I16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="J16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="K16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="L16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="M16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="N16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="O16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="P16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="R16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="S16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="T16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="U16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="V16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="W16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="X16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.84695791156269</v>
+        <v>44.84695791156286</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="C17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="D17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="E17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="F17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="G17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I17" t="n">
         <v>41.54770747653555</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="T17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="U17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="V17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="W17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="X17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="C19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="D19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="E19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="F19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="G19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="J19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="K19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580915</v>
       </c>
       <c r="L19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="M19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="N19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="O19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="P19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.95975813580984</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="R19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="S19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="T19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="U19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="V19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="W19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="X19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="C20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="D20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="E20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="F20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="G20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I20" t="n">
         <v>41.54770747653555</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="T20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="U20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="V20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="W20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="X20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="C22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="D22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="E22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="F22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="G22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="J22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="K22" t="n">
-        <v>46.95975813580984</v>
+        <v>46.95975813580915</v>
       </c>
       <c r="L22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="M22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="N22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="O22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="P22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="R22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="S22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="T22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="U22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="V22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="W22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="X22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580895</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="C23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="D23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="E23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="F23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="G23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="H23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="I23" t="n">
         <v>41.54770747653555</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="T23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="U23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="V23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="W23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="X23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="C25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="D25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="E25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="F25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="G25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="H25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="I25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="J25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="K25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="L25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="M25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="N25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="O25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="P25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="R25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="S25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="T25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="U25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="V25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="W25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="X25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.95975813580892</v>
+        <v>46.95975813580896</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="C26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="D26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="E26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="F26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="G26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="H26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="I26" t="n">
         <v>41.54770747653555</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="T26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="U26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="V26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="W26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="X26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="C28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="D28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="E28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="F28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="G28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="H28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="I28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="J28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="K28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="L28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="M28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="N28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="O28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="P28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="R28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="S28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="T28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="U28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="V28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="W28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="X28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="C29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="D29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="E29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="F29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="G29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="H29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="I29" t="n">
         <v>41.54770747653555</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="T29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="U29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="V29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="W29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="X29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="Y29" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="C31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="D31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="E31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="F31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="G31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="H31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="I31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="J31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="K31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="L31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="M31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="N31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="O31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="P31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="R31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="S31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="T31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="U31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="V31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="W31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="X31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.74348476266691</v>
+        <v>42.74348476266688</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="C32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="D32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="E32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="F32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="G32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="H32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="I32" t="n">
         <v>41.54770747653555</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="T32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="U32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="V32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="W32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="X32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="C34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="D34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="E34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="F34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="G34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="H34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="I34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="J34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="K34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="L34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="M34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="N34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="O34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="P34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="R34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="S34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="T34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="U34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="V34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="W34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="X34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580894</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="C35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="D35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="E35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="F35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="G35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="H35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="I35" t="n">
         <v>41.54770747653555</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="T35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="U35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="V35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="W35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="X35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="C37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="D37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="E37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="F37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="G37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="H37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="I37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="J37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="K37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="L37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="M37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="N37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="O37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="P37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="R37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="S37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="T37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="U37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="V37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="W37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="X37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="C38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="D38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="E38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="F38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="G38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="H38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="I38" t="n">
         <v>41.54770747653555</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="T38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="U38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="V38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="W38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="X38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="C40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="D40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="E40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="F40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="G40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="H40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="I40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="J40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580981</v>
       </c>
       <c r="K40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="L40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="M40" t="n">
-        <v>46.95975813580873</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="N40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="O40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="P40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="R40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="S40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="T40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="U40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="V40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="W40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="X40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.95975813580895</v>
+        <v>46.95975813580891</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="C41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="D41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="E41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="F41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="G41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="H41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="I41" t="n">
         <v>41.54770747653555</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="T41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="U41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="V41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="W41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="X41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="C43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="D43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="E43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="F43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="G43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="H43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="I43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="J43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="K43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="L43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="M43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="N43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="O43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="P43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="R43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="S43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="T43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="U43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="V43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="W43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="X43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.95975813580896</v>
+        <v>46.95975813580891</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="C44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="D44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="E44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="F44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="G44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="H44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="I44" t="n">
-        <v>41.54770747653558</v>
+        <v>41.54770747653555</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="T44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="U44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="V44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="W44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="X44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="C46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="D46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="E46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="F46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="G46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="H46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="I46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="J46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="K46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="L46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="M46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="N46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580986</v>
       </c>
       <c r="O46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="P46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="R46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="S46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="T46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="U46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="V46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="W46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="X46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580891</v>
       </c>
     </row>
   </sheetData>
@@ -31856,10 +31856,10 @@
         <v>557.8051406606743</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6878023500735</v>
+        <v>447.0082652179787</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.5879027961639</v>
+        <v>299.267439928259</v>
       </c>
       <c r="R12" t="n">
         <v>145.5617743136488</v>
@@ -32075,7 +32075,7 @@
         <v>80.71912463705446</v>
       </c>
       <c r="J15" t="n">
-        <v>220.8199104866046</v>
+        <v>221.4994476186994</v>
       </c>
       <c r="K15" t="n">
         <v>378.5778358933037</v>
@@ -32090,7 +32090,7 @@
         <v>609.7532957774131</v>
       </c>
       <c r="O15" t="n">
-        <v>557.8051406606743</v>
+        <v>557.1256035285795</v>
       </c>
       <c r="P15" t="n">
         <v>447.6878023500735</v>
@@ -32315,7 +32315,7 @@
         <v>221.4994476186994</v>
       </c>
       <c r="K18" t="n">
-        <v>377.8982987612089</v>
+        <v>378.5778358933037</v>
       </c>
       <c r="L18" t="n">
         <v>509.0446197652715</v>
@@ -32330,7 +32330,7 @@
         <v>557.8051406606743</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6878023500735</v>
+        <v>447.0082652179787</v>
       </c>
       <c r="Q18" t="n">
         <v>299.267439928259</v>
@@ -32552,7 +32552,7 @@
         <v>221.4994476186994</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5778358933037</v>
+        <v>377.8982987612089</v>
       </c>
       <c r="L21" t="n">
         <v>509.0446197652715</v>
@@ -32570,7 +32570,7 @@
         <v>447.6878023500735</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.5879027961639</v>
+        <v>299.267439928259</v>
       </c>
       <c r="R21" t="n">
         <v>145.5617743136488</v>
@@ -32786,7 +32786,7 @@
         <v>80.71912463705446</v>
       </c>
       <c r="J24" t="n">
-        <v>220.8199104866046</v>
+        <v>221.4994476186994</v>
       </c>
       <c r="K24" t="n">
         <v>378.5778358933037</v>
@@ -32801,7 +32801,7 @@
         <v>609.7532957774131</v>
       </c>
       <c r="O24" t="n">
-        <v>557.8051406606743</v>
+        <v>557.1256035285793</v>
       </c>
       <c r="P24" t="n">
         <v>447.6878023500735</v>
@@ -33023,7 +33023,7 @@
         <v>80.71912463705446</v>
       </c>
       <c r="J27" t="n">
-        <v>220.8199104866043</v>
+        <v>221.4994476186994</v>
       </c>
       <c r="K27" t="n">
         <v>378.5778358933037</v>
@@ -33032,7 +33032,7 @@
         <v>509.0446197652715</v>
       </c>
       <c r="M27" t="n">
-        <v>594.0310611825013</v>
+        <v>593.3515240504062</v>
       </c>
       <c r="N27" t="n">
         <v>609.7532957774131</v>
@@ -33497,13 +33497,13 @@
         <v>80.71912463705446</v>
       </c>
       <c r="J33" t="n">
-        <v>220.8199104866046</v>
+        <v>221.4994476186994</v>
       </c>
       <c r="K33" t="n">
         <v>378.5778358933037</v>
       </c>
       <c r="L33" t="n">
-        <v>509.0446197652715</v>
+        <v>508.3650826331766</v>
       </c>
       <c r="M33" t="n">
         <v>594.0310611825013</v>
@@ -33737,7 +33737,7 @@
         <v>221.4994476186994</v>
       </c>
       <c r="K36" t="n">
-        <v>377.8982987612089</v>
+        <v>378.5778358933037</v>
       </c>
       <c r="L36" t="n">
         <v>509.0446197652715</v>
@@ -33746,7 +33746,7 @@
         <v>594.0310611825013</v>
       </c>
       <c r="N36" t="n">
-        <v>609.7532957774131</v>
+        <v>609.0737586453182</v>
       </c>
       <c r="O36" t="n">
         <v>557.8051406606743</v>
@@ -33971,7 +33971,7 @@
         <v>80.71912463705446</v>
       </c>
       <c r="J39" t="n">
-        <v>220.8199104866046</v>
+        <v>221.4994476186994</v>
       </c>
       <c r="K39" t="n">
         <v>378.5778358933037</v>
@@ -33980,7 +33980,7 @@
         <v>509.0446197652715</v>
       </c>
       <c r="M39" t="n">
-        <v>594.0310611825013</v>
+        <v>593.3515240504065</v>
       </c>
       <c r="N39" t="n">
         <v>609.7532957774131</v>
@@ -34211,7 +34211,7 @@
         <v>221.4994476186994</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5778358933037</v>
+        <v>377.8982987612089</v>
       </c>
       <c r="L42" t="n">
         <v>509.0446197652715</v>
@@ -34229,7 +34229,7 @@
         <v>447.6878023500735</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.5879027961639</v>
+        <v>299.267439928259</v>
       </c>
       <c r="R42" t="n">
         <v>145.5617743136488</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381769848748335</v>
+        <v>4.381769848748336</v>
       </c>
       <c r="H44" t="n">
-        <v>44.87480046349389</v>
+        <v>44.87480046349391</v>
       </c>
       <c r="I44" t="n">
-        <v>168.9281820938703</v>
+        <v>168.9281820938704</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8972387002043</v>
+        <v>371.8972387002044</v>
       </c>
       <c r="K44" t="n">
-        <v>557.3775563977214</v>
+        <v>557.3775563977215</v>
       </c>
       <c r="L44" t="n">
-        <v>691.4761454063535</v>
+        <v>691.4761454063536</v>
       </c>
       <c r="M44" t="n">
-        <v>769.4004449540316</v>
+        <v>769.4004449540317</v>
       </c>
       <c r="N44" t="n">
-        <v>781.8501485367879</v>
+        <v>781.850148536788</v>
       </c>
       <c r="O44" t="n">
-        <v>738.2789246032966</v>
+        <v>738.2789246032967</v>
       </c>
       <c r="P44" t="n">
-        <v>630.1039814623219</v>
+        <v>630.1039814623221</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.181848754022</v>
+        <v>473.1818487540222</v>
       </c>
       <c r="R44" t="n">
-        <v>275.2463502614378</v>
+        <v>275.2463502614379</v>
       </c>
       <c r="S44" t="n">
-        <v>99.84958042835278</v>
+        <v>99.84958042835279</v>
       </c>
       <c r="T44" t="n">
         <v>19.18119751289585</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3505415878998667</v>
+        <v>0.3505415878998668</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344453556337377</v>
+        <v>2.344453556337378</v>
       </c>
       <c r="H45" t="n">
         <v>22.64248566252152</v>
       </c>
       <c r="I45" t="n">
-        <v>80.71912463705445</v>
+        <v>80.71912463705446</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4994476186993</v>
+        <v>221.4994476186994</v>
       </c>
       <c r="K45" t="n">
-        <v>377.89829876121</v>
+        <v>377.8982987612089</v>
       </c>
       <c r="L45" t="n">
-        <v>509.0446197652714</v>
+        <v>509.0446197652715</v>
       </c>
       <c r="M45" t="n">
-        <v>594.0310611825012</v>
+        <v>594.0310611825013</v>
       </c>
       <c r="N45" t="n">
-        <v>609.7532957774129</v>
+        <v>609.7532957774131</v>
       </c>
       <c r="O45" t="n">
-        <v>557.8051406606742</v>
+        <v>557.8051406606743</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6878023500734</v>
+        <v>447.6878023500735</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2674399282589</v>
+        <v>299.267439928259</v>
       </c>
       <c r="R45" t="n">
         <v>145.5617743136488</v>
       </c>
       <c r="S45" t="n">
-        <v>43.5471965398631</v>
+        <v>43.54719653986311</v>
       </c>
       <c r="T45" t="n">
-        <v>9.449793062605478</v>
+        <v>9.44979306260548</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542403655485117</v>
+        <v>0.1542403655485118</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965511106334039</v>
+        <v>1.96551110633404</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4751805635881</v>
+        <v>17.47518056358811</v>
       </c>
       <c r="I46" t="n">
-        <v>59.10827945230003</v>
+        <v>59.10827945230005</v>
       </c>
       <c r="J46" t="n">
         <v>138.9616352178166</v>
@@ -34533,31 +34533,31 @@
         <v>292.2178966635171</v>
       </c>
       <c r="M46" t="n">
-        <v>308.102800059253</v>
+        <v>308.1028000592531</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7768041174627</v>
+        <v>300.7768041174628</v>
       </c>
       <c r="O46" t="n">
         <v>277.8160607389241</v>
       </c>
       <c r="P46" t="n">
-        <v>237.7196341697095</v>
+        <v>237.7196341697096</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5847527312985</v>
+        <v>164.5847527312986</v>
       </c>
       <c r="R46" t="n">
-        <v>88.37652665389231</v>
+        <v>88.37652665389234</v>
       </c>
       <c r="S46" t="n">
-        <v>34.25349809856683</v>
+        <v>34.25349809856684</v>
       </c>
       <c r="T46" t="n">
-        <v>8.398092908881802</v>
+        <v>8.398092908881804</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1072096967091295</v>
+        <v>0.1072096967091296</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>14.59566700367657</v>
-      </c>
-      <c r="N8" t="n">
-        <v>15.21022140383137</v>
-      </c>
-      <c r="O8" t="n">
-        <v>15.21022140383137</v>
       </c>
       <c r="P8" t="n">
         <v>15.21022140383137</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K9" t="n">
-        <v>15.21022140383137</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>15.21022140383137</v>
       </c>
       <c r="M9" t="n">
-        <v>14.59566700367657</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="N9" t="n">
         <v>15.21022140383137</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.66554817468793</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,13 +35334,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>15.21022140383137</v>
+        <v>12.2979267016512</v>
       </c>
       <c r="M10" t="n">
         <v>15.21022140383137</v>
       </c>
       <c r="N10" t="n">
-        <v>12.2979267016512</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="O10" t="n">
         <v>15.21022140383137</v>
@@ -35504,10 +35504,10 @@
         <v>415.2088962162298</v>
       </c>
       <c r="P12" t="n">
-        <v>313.7133949357433</v>
+        <v>313.0338578036485</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6061287101423</v>
+        <v>159.2856658422374</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.44941301270651</v>
+        <v>90.44941301270669</v>
       </c>
       <c r="K13" t="n">
-        <v>250.9341200761255</v>
+        <v>250.9341200761257</v>
       </c>
       <c r="L13" t="n">
-        <v>364.6548798353959</v>
+        <v>364.6548798353962</v>
       </c>
       <c r="M13" t="n">
-        <v>392.5336349326564</v>
+        <v>392.5336349326565</v>
       </c>
       <c r="N13" t="n">
-        <v>389.7559344082541</v>
+        <v>389.7559344082542</v>
       </c>
       <c r="O13" t="n">
-        <v>347.2481465645265</v>
+        <v>347.2481465645267</v>
       </c>
       <c r="P13" t="n">
-        <v>279.8451513461657</v>
+        <v>279.8451513461659</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.2696673911668</v>
+        <v>123.269667391167</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>337.2877053527409</v>
       </c>
       <c r="L14" t="n">
-        <v>455.7097304363663</v>
+        <v>455.7097304363672</v>
       </c>
       <c r="M14" t="n">
         <v>539.054211726759</v>
@@ -35659,7 +35659,7 @@
         <v>552.4370849401971</v>
       </c>
       <c r="O14" t="n">
-        <v>508.1807131816116</v>
+        <v>508.1807131816099</v>
       </c>
       <c r="P14" t="n">
         <v>398.8709857070525</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>93.98228381993793</v>
+        <v>94.66182095203271</v>
       </c>
       <c r="K15" t="n">
         <v>240.7363969189447</v>
@@ -35738,7 +35738,7 @@
         <v>478.4115836940798</v>
       </c>
       <c r="O15" t="n">
-        <v>415.2088962162298</v>
+        <v>414.5293590841351</v>
       </c>
       <c r="P15" t="n">
         <v>313.7133949357433</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.44941301270651</v>
+        <v>90.44941301270669</v>
       </c>
       <c r="K16" t="n">
-        <v>250.9341200761255</v>
+        <v>250.9341200761257</v>
       </c>
       <c r="L16" t="n">
-        <v>364.6548798353959</v>
+        <v>364.6548798353962</v>
       </c>
       <c r="M16" t="n">
-        <v>392.5336349326564</v>
+        <v>392.5336349326565</v>
       </c>
       <c r="N16" t="n">
-        <v>389.7559344082541</v>
+        <v>389.7559344082542</v>
       </c>
       <c r="O16" t="n">
-        <v>347.2481465645265</v>
+        <v>347.2481465645267</v>
       </c>
       <c r="P16" t="n">
-        <v>279.8451513461657</v>
+        <v>279.8451513461659</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.2696673911668</v>
+        <v>123.269667391167</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.8513341735181</v>
+        <v>190.8513341735191</v>
       </c>
       <c r="K17" t="n">
         <v>337.2877053527409</v>
@@ -35905,7 +35905,7 @@
         <v>250.8761588795727</v>
       </c>
       <c r="R17" t="n">
-        <v>59.66081244730756</v>
+        <v>59.66081244730577</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>94.66182095203271</v>
       </c>
       <c r="K18" t="n">
-        <v>240.0568597868499</v>
+        <v>240.7363969189447</v>
       </c>
       <c r="L18" t="n">
         <v>370.4902399853973</v>
@@ -35978,7 +35978,7 @@
         <v>415.2088962162298</v>
       </c>
       <c r="P18" t="n">
-        <v>313.7133949357433</v>
+        <v>313.0338578036485</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2856658422374</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.56221323695274</v>
+        <v>92.56221323695277</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0469203003717</v>
+        <v>253.0469203003719</v>
       </c>
       <c r="L19" t="n">
         <v>366.7676800596422</v>
@@ -36051,16 +36051,16 @@
         <v>394.6464351569026</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8687346325003</v>
+        <v>391.8687346325004</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3609467887727</v>
+        <v>349.3609467887728</v>
       </c>
       <c r="P19" t="n">
         <v>281.957951570412</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.382467615414</v>
+        <v>125.3824676154131</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>250.8761588795727</v>
       </c>
       <c r="R20" t="n">
-        <v>59.66081244730756</v>
+        <v>59.66081244730577</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.66182095203271</v>
       </c>
       <c r="K21" t="n">
-        <v>240.7363969189447</v>
+        <v>240.05685978685</v>
       </c>
       <c r="L21" t="n">
         <v>370.4902399853973</v>
@@ -36218,7 +36218,7 @@
         <v>313.7133949357433</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6061287101423</v>
+        <v>159.2856658422374</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.56221323695274</v>
+        <v>92.56221323695277</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0469203003726</v>
+        <v>253.0469203003719</v>
       </c>
       <c r="L22" t="n">
         <v>366.7676800596422</v>
@@ -36288,10 +36288,10 @@
         <v>394.6464351569026</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8687346325003</v>
+        <v>391.8687346325004</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3609467887727</v>
+        <v>349.3609467887728</v>
       </c>
       <c r="P22" t="n">
         <v>281.957951570412</v>
@@ -36358,13 +36358,13 @@
         <v>359.9479493455919</v>
       </c>
       <c r="K23" t="n">
-        <v>376.5848592469628</v>
+        <v>661.4331179239057</v>
       </c>
       <c r="L23" t="n">
-        <v>455.7097304363663</v>
+        <v>686.0914251252387</v>
       </c>
       <c r="M23" t="n">
-        <v>988.5677452195915</v>
+        <v>539.054211726759</v>
       </c>
       <c r="N23" t="n">
         <v>552.4370849401971</v>
@@ -36379,7 +36379,7 @@
         <v>250.8761588795727</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3772323202882</v>
+        <v>59.66081244730577</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.98228381993789</v>
+        <v>94.66182095203271</v>
       </c>
       <c r="K24" t="n">
         <v>240.7363969189447</v>
@@ -36449,7 +36449,7 @@
         <v>478.4115836940798</v>
       </c>
       <c r="O24" t="n">
-        <v>415.2088962162298</v>
+        <v>414.5293590841349</v>
       </c>
       <c r="P24" t="n">
         <v>313.7133949357433</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.56221323695274</v>
+        <v>92.56221323695277</v>
       </c>
       <c r="K25" t="n">
         <v>253.0469203003717</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7676800596422</v>
+        <v>366.7676800596423</v>
       </c>
       <c r="M25" t="n">
         <v>394.6464351569026</v>
@@ -36528,7 +36528,7 @@
         <v>391.8687346325003</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3609467887727</v>
+        <v>349.3609467887728</v>
       </c>
       <c r="P25" t="n">
         <v>281.957951570412</v>
@@ -36595,7 +36595,7 @@
         <v>190.8513341735181</v>
       </c>
       <c r="K26" t="n">
-        <v>337.2877053527409</v>
+        <v>418.538869565794</v>
       </c>
       <c r="L26" t="n">
         <v>455.7097304363663</v>
@@ -36607,16 +36607,16 @@
         <v>552.4370849401971</v>
       </c>
       <c r="O26" t="n">
-        <v>692.2006481245193</v>
+        <v>888.9808944443553</v>
       </c>
       <c r="P26" t="n">
         <v>720.6696938785351</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1911495394774</v>
+        <v>250.8761588795727</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3772323202882</v>
+        <v>59.66081244730577</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.98228381993763</v>
+        <v>94.66182095203271</v>
       </c>
       <c r="K27" t="n">
         <v>240.7363969189447</v>
@@ -36680,7 +36680,7 @@
         <v>370.4902399853973</v>
       </c>
       <c r="M27" t="n">
-        <v>451.897027260483</v>
+        <v>451.2174901283878</v>
       </c>
       <c r="N27" t="n">
         <v>478.4115836940798</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.34593986381073</v>
+        <v>88.3459398638107</v>
       </c>
       <c r="K28" t="n">
         <v>248.8306469272297</v>
@@ -36759,10 +36759,10 @@
         <v>362.5514066865002</v>
       </c>
       <c r="M28" t="n">
-        <v>390.4301617837606</v>
+        <v>390.4301617837605</v>
       </c>
       <c r="N28" t="n">
-        <v>387.6524612593583</v>
+        <v>387.6524612593582</v>
       </c>
       <c r="O28" t="n">
         <v>345.1446734156307</v>
@@ -36771,7 +36771,7 @@
         <v>277.7416781972699</v>
       </c>
       <c r="Q28" t="n">
-        <v>121.1661942422711</v>
+        <v>121.166194242271</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>455.7097304363663</v>
       </c>
       <c r="M29" t="n">
-        <v>885.5573409620547</v>
+        <v>539.054211726759</v>
       </c>
       <c r="N29" t="n">
         <v>989.7840093521812</v>
       </c>
       <c r="O29" t="n">
-        <v>508.1807131816099</v>
+        <v>854.6838424169074</v>
       </c>
       <c r="P29" t="n">
         <v>398.8709857070525</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.98228381993763</v>
+        <v>93.98228381993761</v>
       </c>
       <c r="K30" t="n">
         <v>240.7363969189447</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.34593986381073</v>
+        <v>88.3459398638107</v>
       </c>
       <c r="K31" t="n">
         <v>248.8306469272297</v>
@@ -36996,10 +36996,10 @@
         <v>362.5514066865002</v>
       </c>
       <c r="M31" t="n">
-        <v>390.4301617837606</v>
+        <v>390.4301617837605</v>
       </c>
       <c r="N31" t="n">
-        <v>387.6524612593583</v>
+        <v>387.6524612593582</v>
       </c>
       <c r="O31" t="n">
         <v>345.1446734156307</v>
@@ -37008,7 +37008,7 @@
         <v>277.7416781972699</v>
       </c>
       <c r="Q31" t="n">
-        <v>121.1661942422711</v>
+        <v>121.166194242271</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>190.8513341735181</v>
       </c>
       <c r="K32" t="n">
-        <v>337.2877053527409</v>
+        <v>661.4331179239057</v>
       </c>
       <c r="L32" t="n">
         <v>455.7097304363663</v>
@@ -37078,10 +37078,10 @@
         <v>539.054211726759</v>
       </c>
       <c r="N32" t="n">
-        <v>989.7840093521812</v>
+        <v>552.4370849401971</v>
       </c>
       <c r="O32" t="n">
-        <v>794.4575112017345</v>
+        <v>888.9808944443553</v>
       </c>
       <c r="P32" t="n">
         <v>398.8709857070525</v>
@@ -37090,7 +37090,7 @@
         <v>250.8761588795727</v>
       </c>
       <c r="R32" t="n">
-        <v>59.66081244730577</v>
+        <v>78.33894104550649</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.98228381993792</v>
+        <v>94.66182095203271</v>
       </c>
       <c r="K33" t="n">
         <v>240.7363969189447</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4902399853973</v>
+        <v>369.8107028533024</v>
       </c>
       <c r="M33" t="n">
         <v>451.897027260483</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.56221323695274</v>
+        <v>92.56221323695276</v>
       </c>
       <c r="K34" t="n">
         <v>253.0469203003717</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7676800596422</v>
+        <v>366.7676800596423</v>
       </c>
       <c r="M34" t="n">
         <v>394.6464351569026</v>
@@ -37239,7 +37239,7 @@
         <v>391.8687346325003</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3609467887727</v>
+        <v>349.3609467887728</v>
       </c>
       <c r="P34" t="n">
         <v>281.957951570412</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.9479493455919</v>
+        <v>190.8513341735181</v>
       </c>
       <c r="K35" t="n">
         <v>337.2877053527409</v>
@@ -37312,7 +37312,7 @@
         <v>455.7097304363663</v>
       </c>
       <c r="M35" t="n">
-        <v>539.054211726759</v>
+        <v>988.5677452195915</v>
       </c>
       <c r="N35" t="n">
         <v>552.4370849401971</v>
@@ -37321,10 +37321,10 @@
         <v>508.1807131816099</v>
       </c>
       <c r="P35" t="n">
-        <v>675.3666824342004</v>
+        <v>398.8709857070525</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1911495394774</v>
+        <v>459.2699279458691</v>
       </c>
       <c r="R35" t="n">
         <v>125.3772323202882</v>
@@ -37385,7 +37385,7 @@
         <v>94.66182095203271</v>
       </c>
       <c r="K36" t="n">
-        <v>240.0568597868499</v>
+        <v>240.7363969189447</v>
       </c>
       <c r="L36" t="n">
         <v>370.4902399853973</v>
@@ -37394,7 +37394,7 @@
         <v>451.897027260483</v>
       </c>
       <c r="N36" t="n">
-        <v>478.4115836940798</v>
+        <v>477.7320465619849</v>
       </c>
       <c r="O36" t="n">
         <v>415.2088962162298</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.56221323695277</v>
+        <v>92.56221323695273</v>
       </c>
       <c r="K37" t="n">
         <v>253.0469203003717</v>
@@ -37473,10 +37473,10 @@
         <v>394.6464351569026</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8687346325004</v>
+        <v>391.8687346325003</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3609467887728</v>
+        <v>349.3609467887727</v>
       </c>
       <c r="P37" t="n">
         <v>281.957951570412</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.9479493455919</v>
+        <v>190.8513341735181</v>
       </c>
       <c r="K38" t="n">
-        <v>661.4331179239057</v>
+        <v>337.2877053527409</v>
       </c>
       <c r="L38" t="n">
-        <v>620.3750052522539</v>
+        <v>455.7097304363663</v>
       </c>
       <c r="M38" t="n">
         <v>539.054211726759</v>
       </c>
       <c r="N38" t="n">
-        <v>552.4370849401971</v>
+        <v>895.2606261095615</v>
       </c>
       <c r="O38" t="n">
-        <v>508.1807131816099</v>
+        <v>888.9808944443553</v>
       </c>
       <c r="P38" t="n">
         <v>398.8709857070525</v>
@@ -37564,7 +37564,7 @@
         <v>250.8761588795727</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3772323202882</v>
+        <v>59.66081244730577</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.98228381993792</v>
+        <v>94.66182095203271</v>
       </c>
       <c r="K39" t="n">
         <v>240.7363969189447</v>
@@ -37628,7 +37628,7 @@
         <v>370.4902399853973</v>
       </c>
       <c r="M39" t="n">
-        <v>451.897027260483</v>
+        <v>451.2174901283882</v>
       </c>
       <c r="N39" t="n">
         <v>478.4115836940798</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.56221323695277</v>
+        <v>92.56221323695362</v>
       </c>
       <c r="K40" t="n">
         <v>253.0469203003717</v>
@@ -37707,13 +37707,13 @@
         <v>366.7676800596422</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6464351569024</v>
+        <v>394.6464351569026</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8687346325004</v>
+        <v>391.8687346325003</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3609467887728</v>
+        <v>349.3609467887727</v>
       </c>
       <c r="P40" t="n">
         <v>281.957951570412</v>
@@ -37783,7 +37783,7 @@
         <v>337.2877053527409</v>
       </c>
       <c r="L41" t="n">
-        <v>455.7097304363663</v>
+        <v>873.3709449868168</v>
       </c>
       <c r="M41" t="n">
         <v>539.054211726759</v>
@@ -37795,13 +37795,13 @@
         <v>508.1807131816099</v>
       </c>
       <c r="P41" t="n">
-        <v>720.6696938785351</v>
+        <v>398.8709857070525</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1911495394774</v>
+        <v>322.0256317161757</v>
       </c>
       <c r="R41" t="n">
-        <v>80.07422087595492</v>
+        <v>125.3772323202882</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.66182095203271</v>
       </c>
       <c r="K42" t="n">
-        <v>240.7363969189447</v>
+        <v>240.0568597868499</v>
       </c>
       <c r="L42" t="n">
         <v>370.4902399853973</v>
@@ -37877,7 +37877,7 @@
         <v>313.7133949357433</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6061287101423</v>
+        <v>159.2856658422374</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.56221323695277</v>
+        <v>92.56221323695273</v>
       </c>
       <c r="K43" t="n">
         <v>253.0469203003717</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7676800596423</v>
+        <v>366.7676800596422</v>
       </c>
       <c r="M43" t="n">
         <v>394.6464351569026</v>
@@ -37950,7 +37950,7 @@
         <v>391.8687346325003</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3609467887728</v>
+        <v>349.3609467887727</v>
       </c>
       <c r="P43" t="n">
         <v>281.957951570412</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.9479493455918</v>
+        <v>190.8513341735181</v>
       </c>
       <c r="K44" t="n">
-        <v>337.2877053527408</v>
+        <v>337.2877053527409</v>
       </c>
       <c r="L44" t="n">
-        <v>455.7097304363662</v>
+        <v>645.2197540370892</v>
       </c>
       <c r="M44" t="n">
-        <v>539.0542117267589</v>
+        <v>539.054211726759</v>
       </c>
       <c r="N44" t="n">
-        <v>552.4370849401969</v>
+        <v>552.4370849401971</v>
       </c>
       <c r="O44" t="n">
-        <v>508.1807131816098</v>
+        <v>508.1807131816099</v>
       </c>
       <c r="P44" t="n">
-        <v>675.3666824342027</v>
+        <v>720.6696938785351</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1911495394772</v>
+        <v>463.1911495394774</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3772323202882</v>
+        <v>59.66081244730577</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.66182095203266</v>
+        <v>94.66182095203271</v>
       </c>
       <c r="K45" t="n">
-        <v>240.0568597868509</v>
+        <v>240.0568597868499</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4902399853972</v>
+        <v>370.4902399853973</v>
       </c>
       <c r="M45" t="n">
-        <v>451.8970272604828</v>
+        <v>451.897027260483</v>
       </c>
       <c r="N45" t="n">
-        <v>478.4115836940796</v>
+        <v>478.4115836940798</v>
       </c>
       <c r="O45" t="n">
-        <v>415.2088962162297</v>
+        <v>415.2088962162298</v>
       </c>
       <c r="P45" t="n">
-        <v>313.7133949357432</v>
+        <v>313.7133949357433</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2856658422374</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.56221323695272</v>
+        <v>92.56221323695273</v>
       </c>
       <c r="K46" t="n">
         <v>253.0469203003717</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7676800596421</v>
+        <v>366.7676800596422</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6464351569025</v>
+        <v>394.6464351569026</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8687346325003</v>
+        <v>391.8687346325012</v>
       </c>
       <c r="O46" t="n">
         <v>349.3609467887727</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9579515704119</v>
+        <v>281.957951570412</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.382467615413</v>
+        <v>125.3824676154131</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
